--- a/data/exports/fct_agg_performance.xlsx
+++ b/data/exports/fct_agg_performance.xlsx
@@ -456,7 +456,7 @@
     <col width="19" customWidth="1" min="7" max="7"/>
     <col width="19" customWidth="1" min="8" max="8"/>
     <col width="19" customWidth="1" min="9" max="9"/>
-    <col width="12" customWidth="1" min="10" max="10"/>
+    <col width="19" customWidth="1" min="10" max="10"/>
     <col width="17" customWidth="1" min="11" max="11"/>
     <col width="20" customWidth="1" min="12" max="12"/>
     <col width="19" customWidth="1" min="13" max="13"/>
@@ -469,7 +469,7 @@
     <col width="30" customWidth="1" min="20" max="20"/>
     <col width="21" customWidth="1" min="21" max="21"/>
     <col width="19" customWidth="1" min="22" max="22"/>
-    <col width="11" customWidth="1" min="23" max="23"/>
+    <col width="21" customWidth="1" min="23" max="23"/>
     <col width="18" customWidth="1" min="24" max="24"/>
     <col width="21" customWidth="1" min="25" max="25"/>
     <col width="19" customWidth="1" min="26" max="26"/>
@@ -642,7 +642,7 @@
         <v>20023.08</v>
       </c>
       <c r="H2" t="n">
-        <v>3468.900000000001</v>
+        <v>3468.9</v>
       </c>
       <c r="I2" t="n">
         <v>2819.7</v>
@@ -654,22 +654,22 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1863.341928</v>
       </c>
       <c r="M2" t="n">
         <v>1322.4265</v>
       </c>
       <c r="N2" t="n">
-        <v>288.7969938122536</v>
+        <v>288.7969938122535</v>
       </c>
       <c r="O2" t="n">
-        <v>3468.900000000001</v>
+        <v>1605.558072</v>
       </c>
       <c r="P2" t="n">
-        <v>3180.103006187746</v>
+        <v>1316.761078187747</v>
       </c>
       <c r="Q2" t="n">
-        <v>1857.676506187747</v>
+        <v>-5.665421812253271</v>
       </c>
       <c r="R2" t="n">
         <v>289.075</v>
@@ -678,22 +678,22 @@
         <v>110.2022083333333</v>
       </c>
       <c r="T2" t="n">
-        <v>265.0085838489788</v>
+        <v>109.7300898489789</v>
       </c>
       <c r="U2" t="n">
-        <v>154.8063755156456</v>
+        <v>-0.4721184843544393</v>
       </c>
       <c r="V2" t="n">
         <v>2.623132552168306</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>0.09305970549985317</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.6063352890764059</v>
+        <v>0.6063352890764058</v>
       </c>
       <c r="Z2" t="n">
         <v>12</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2197.61514</v>
       </c>
       <c r="M3" t="n">
         <v>1487.612</v>
@@ -752,13 +752,13 @@
         <v>334.5678017466946</v>
       </c>
       <c r="O3" t="n">
-        <v>8501.67</v>
+        <v>6304.05486</v>
       </c>
       <c r="P3" t="n">
-        <v>8167.102198253308</v>
+        <v>5969.487058253306</v>
       </c>
       <c r="Q3" t="n">
-        <v>6679.490198253307</v>
+        <v>4481.875058253306</v>
       </c>
       <c r="R3" t="n">
         <v>404.8414285714286</v>
@@ -767,16 +767,16 @@
         <v>114.4316923076923</v>
       </c>
       <c r="T3" t="n">
-        <v>388.9096284882527</v>
+        <v>284.2612884882527</v>
       </c>
       <c r="U3" t="n">
-        <v>318.070961821586</v>
+        <v>213.422621821586</v>
       </c>
       <c r="V3" t="n">
         <v>5.714978099127999</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>0.06695279854128236</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>152.624304</v>
       </c>
       <c r="M4" t="n">
         <v>511.68</v>
@@ -841,13 +841,13 @@
         <v>103.7933963426752</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>-152.624304</v>
       </c>
       <c r="P4" t="n">
-        <v>-103.7933963426752</v>
+        <v>-256.4177003426751</v>
       </c>
       <c r="Q4" t="n">
-        <v>-615.4733963426752</v>
+        <v>-768.0977003426751</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -856,16 +856,16 @@
         <v>255.84</v>
       </c>
       <c r="T4" t="n">
-        <v>-51.89669817133758</v>
+        <v>-128.2088501713376</v>
       </c>
       <c r="U4" t="n">
-        <v>-307.7366981713376</v>
+        <v>-384.0488501713376</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>0.0252</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>207.50058</v>
       </c>
       <c r="M5" t="n">
         <v>170.85</v>
@@ -930,13 +930,13 @@
         <v>26.00839777799428</v>
       </c>
       <c r="O5" t="n">
-        <v>1015.51</v>
+        <v>808.00942</v>
       </c>
       <c r="P5" t="n">
-        <v>989.5016022220058</v>
+        <v>782.0010222220058</v>
       </c>
       <c r="Q5" t="n">
-        <v>818.6516022220057</v>
+        <v>611.1510222220057</v>
       </c>
       <c r="R5" t="n">
         <v>507.755</v>
@@ -945,16 +945,16 @@
         <v>85.425</v>
       </c>
       <c r="T5" t="n">
-        <v>494.7508011110029</v>
+        <v>391.0005111110029</v>
       </c>
       <c r="U5" t="n">
-        <v>409.3258011110029</v>
+        <v>305.5755111110029</v>
       </c>
       <c r="V5" t="n">
         <v>5.943868890839918</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>0.09522087970080076</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -998,10 +998,10 @@
         <v>28843.65</v>
       </c>
       <c r="H6" t="n">
-        <v>6699.030000000001</v>
+        <v>6699.03</v>
       </c>
       <c r="I6" t="n">
-        <v>6699.030000000001</v>
+        <v>6699.03</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1010,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1700.64909</v>
       </c>
       <c r="M6" t="n">
         <v>300</v>
@@ -1019,37 +1019,37 @@
         <v>185.8282853341862</v>
       </c>
       <c r="O6" t="n">
-        <v>6699.030000000001</v>
+        <v>4998.38091</v>
       </c>
       <c r="P6" t="n">
-        <v>6513.201714665814</v>
+        <v>4812.552624665814</v>
       </c>
       <c r="Q6" t="n">
-        <v>6213.201714665814</v>
+        <v>4512.552624665814</v>
       </c>
       <c r="R6" t="n">
-        <v>609.0027272727274</v>
+        <v>609.0027272727273</v>
       </c>
       <c r="S6" t="n">
         <v>37.5</v>
       </c>
       <c r="T6" t="n">
-        <v>592.1092467878012</v>
+        <v>437.5047840605285</v>
       </c>
       <c r="U6" t="n">
-        <v>564.836519515074</v>
+        <v>410.2320567878012</v>
       </c>
       <c r="V6" t="n">
         <v>22.3301</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>0.05896095293071438</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Z6" t="n">
         <v>8</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>13.8474</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>13.7471858879807</v>
       </c>
       <c r="O7" t="n">
-        <v>55.92</v>
+        <v>42.0726</v>
       </c>
       <c r="P7" t="n">
-        <v>42.1728141120193</v>
+        <v>28.3254141120193</v>
       </c>
       <c r="Q7" t="n">
-        <v>42.1728141120193</v>
+        <v>28.3254141120193</v>
       </c>
       <c r="R7" t="n">
         <v>55.92</v>
@@ -1123,13 +1123,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>42.1728141120193</v>
+        <v>28.3254141120193</v>
       </c>
       <c r="U7" t="n">
-        <v>42.1728141120193</v>
+        <v>28.3254141120193</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>0.0252</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1170,10 +1170,10 @@
         <v>384</v>
       </c>
       <c r="G8" t="n">
-        <v>443050.9799999999</v>
+        <v>443050.98</v>
       </c>
       <c r="H8" t="n">
-        <v>62326.32</v>
+        <v>62326.32000000001</v>
       </c>
       <c r="I8" t="n">
         <v>44524.05</v>
@@ -1185,22 +1185,22 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>34817.30229599999</v>
       </c>
       <c r="M8" t="n">
         <v>14532.783</v>
       </c>
       <c r="N8" t="n">
-        <v>7467.440336850743</v>
+        <v>7467.440336850736</v>
       </c>
       <c r="O8" t="n">
-        <v>62326.32</v>
+        <v>27509.017704</v>
       </c>
       <c r="P8" t="n">
-        <v>54858.87966314927</v>
+        <v>20041.57736714926</v>
       </c>
       <c r="Q8" t="n">
-        <v>40326.09666314931</v>
+        <v>5508.794367149269</v>
       </c>
       <c r="R8" t="n">
         <v>162.308125</v>
@@ -1209,22 +1209,22 @@
         <v>37.8457890625</v>
       </c>
       <c r="T8" t="n">
-        <v>142.8616657894512</v>
+        <v>52.19160772695121</v>
       </c>
       <c r="U8" t="n">
-        <v>105.0158767269513</v>
+        <v>14.34581866445122</v>
       </c>
       <c r="V8" t="n">
-        <v>4.288670655854422</v>
+        <v>4.288670655854423</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>0.07858531832160712</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.4693558515545998</v>
+        <v>0.4693558515545999</v>
       </c>
       <c r="Z8" t="n">
         <v>384</v>
@@ -1262,10 +1262,10 @@
         <v>1041717.28</v>
       </c>
       <c r="H9" t="n">
-        <v>152870.1699999999</v>
+        <v>152870.17</v>
       </c>
       <c r="I9" t="n">
-        <v>119380.1199999999</v>
+        <v>119380.12</v>
       </c>
       <c r="J9" t="n">
         <v>33490.05</v>
@@ -1274,46 +1274,46 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>73327.27235400002</v>
       </c>
       <c r="M9" t="n">
         <v>17362.8245</v>
       </c>
       <c r="N9" t="n">
-        <v>17564.0275004585</v>
+        <v>17564.02750045856</v>
       </c>
       <c r="O9" t="n">
-        <v>152870.1699999999</v>
+        <v>79542.897646</v>
       </c>
       <c r="P9" t="n">
-        <v>135306.1424995415</v>
+        <v>61978.87014554146</v>
       </c>
       <c r="Q9" t="n">
-        <v>117943.3179995416</v>
+        <v>44616.04564554145</v>
       </c>
       <c r="R9" t="n">
-        <v>146.9905480769229</v>
+        <v>146.9905480769231</v>
       </c>
       <c r="S9" t="n">
         <v>29.98760708117443</v>
       </c>
       <c r="T9" t="n">
-        <v>130.102060095713</v>
+        <v>59.59506744763601</v>
       </c>
       <c r="U9" t="n">
-        <v>113.4070365380207</v>
+        <v>42.9000438899437</v>
       </c>
       <c r="V9" t="n">
-        <v>8.804452869980913</v>
+        <v>8.804452869980919</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>0.07039076125721945</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.7551626387535785</v>
+        <v>0.7551626387535783</v>
       </c>
       <c r="Z9" t="n">
         <v>579</v>
@@ -1351,10 +1351,10 @@
         <v>127130.34</v>
       </c>
       <c r="H10" t="n">
-        <v>7740.429999999999</v>
+        <v>7740.430000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>7740.429999999999</v>
+        <v>7740.430000000001</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1363,46 +1363,46 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>5875.875936</v>
       </c>
       <c r="M10" t="n">
-        <v>6706.143000000001</v>
+        <v>6706.143</v>
       </c>
       <c r="N10" t="n">
-        <v>2722.493424281016</v>
+        <v>2722.493424281014</v>
       </c>
       <c r="O10" t="n">
-        <v>7740.429999999999</v>
+        <v>1864.554064</v>
       </c>
       <c r="P10" t="n">
-        <v>5017.936575718985</v>
+        <v>-857.9393602810131</v>
       </c>
       <c r="Q10" t="n">
-        <v>-1688.206424281013</v>
+        <v>-7564.082360281013</v>
       </c>
       <c r="R10" t="n">
-        <v>76.6379207920792</v>
+        <v>76.63792079207921</v>
       </c>
       <c r="S10" t="n">
-        <v>89.41524000000001</v>
+        <v>89.41524</v>
       </c>
       <c r="T10" t="n">
-        <v>49.68254035365332</v>
+        <v>-8.4944491116932</v>
       </c>
       <c r="U10" t="n">
-        <v>-16.71491509189122</v>
+        <v>-74.89190455723775</v>
       </c>
       <c r="V10" t="n">
         <v>1.154229786033492</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>0.04621930481740236</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.9745258291608438</v>
+        <v>0.9745258291608441</v>
       </c>
       <c r="Z10" t="n">
         <v>75</v>
@@ -1452,22 +1452,22 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>14936.815908</v>
       </c>
       <c r="M11" t="n">
         <v>11653.6685</v>
       </c>
       <c r="N11" t="n">
-        <v>3641.774782295892</v>
+        <v>3641.77478229589</v>
       </c>
       <c r="O11" t="n">
-        <v>15397.53</v>
+        <v>460.7140920000005</v>
       </c>
       <c r="P11" t="n">
-        <v>11755.75521770411</v>
+        <v>-3181.06069029589</v>
       </c>
       <c r="Q11" t="n">
-        <v>102.0867177041112</v>
+        <v>-14834.72919029589</v>
       </c>
       <c r="R11" t="n">
         <v>149.4905825242718</v>
@@ -1476,22 +1476,22 @@
         <v>113.1424126213592</v>
       </c>
       <c r="T11" t="n">
-        <v>114.1335458029526</v>
+        <v>-30.88408437180475</v>
       </c>
       <c r="U11" t="n">
-        <v>0.9911331815933124</v>
+        <v>-144.026496993164</v>
       </c>
       <c r="V11" t="n">
-        <v>1.321260339608939</v>
+        <v>1.32126033960894</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>0.06518384960215627</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.7823733314515886</v>
+        <v>0.7823733314515884</v>
       </c>
       <c r="Z11" t="n">
         <v>103</v>
@@ -1526,13 +1526,13 @@
         <v>317</v>
       </c>
       <c r="G12" t="n">
-        <v>549703.3399999999</v>
+        <v>549703.3400000001</v>
       </c>
       <c r="H12" t="n">
-        <v>71025.45999999998</v>
+        <v>71025.46000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>65417.45999999999</v>
+        <v>65417.46000000001</v>
       </c>
       <c r="J12" t="n">
         <v>5608</v>
@@ -1541,46 +1541,46 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>35236.987506</v>
       </c>
       <c r="M12" t="n">
         <v>13293.7515</v>
       </c>
       <c r="N12" t="n">
-        <v>10622.99000955045</v>
+        <v>10622.99000955046</v>
       </c>
       <c r="O12" t="n">
-        <v>71025.45999999998</v>
+        <v>35788.47249399999</v>
       </c>
       <c r="P12" t="n">
-        <v>60402.46999044959</v>
+        <v>25165.48248444954</v>
       </c>
       <c r="Q12" t="n">
-        <v>47108.71849044957</v>
+        <v>11871.73098444954</v>
       </c>
       <c r="R12" t="n">
-        <v>156.099912087912</v>
+        <v>156.0999120879121</v>
       </c>
       <c r="S12" t="n">
-        <v>41.93612460567824</v>
+        <v>41.93612460567823</v>
       </c>
       <c r="T12" t="n">
-        <v>132.7526812976914</v>
+        <v>55.30875271307592</v>
       </c>
       <c r="U12" t="n">
-        <v>103.5356450339551</v>
+        <v>26.09171644933965</v>
       </c>
       <c r="V12" t="n">
-        <v>5.342770248112427</v>
+        <v>5.342770248112432</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>0.06410182537002594</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.9209773766337316</v>
+        <v>0.920977376633731</v>
       </c>
       <c r="Z12" t="n">
         <v>317</v>
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>700.1835120000001</v>
       </c>
       <c r="M13" t="n">
         <v>182.1225</v>
@@ -1639,13 +1639,13 @@
         <v>97.22413547976977</v>
       </c>
       <c r="O13" t="n">
-        <v>1610.39</v>
+        <v>910.206488</v>
       </c>
       <c r="P13" t="n">
-        <v>1513.16586452023</v>
+        <v>812.9823525202302</v>
       </c>
       <c r="Q13" t="n">
-        <v>1331.04336452023</v>
+        <v>630.8598525202301</v>
       </c>
       <c r="R13" t="n">
         <v>201.29875</v>
@@ -1654,16 +1654,16 @@
         <v>45.530625</v>
       </c>
       <c r="T13" t="n">
-        <v>189.1457330650288</v>
+        <v>101.6227940650288</v>
       </c>
       <c r="U13" t="n">
-        <v>166.3804205650288</v>
+        <v>78.85748156502876</v>
       </c>
       <c r="V13" t="n">
-        <v>8.842345124847286</v>
+        <v>8.842345124847288</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>0.05218372741595777</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1707,10 +1707,10 @@
         <v>19690.65</v>
       </c>
       <c r="H14" t="n">
-        <v>7087.04</v>
+        <v>7087.039999999999</v>
       </c>
       <c r="I14" t="n">
-        <v>6043.03</v>
+        <v>6043.029999999999</v>
       </c>
       <c r="J14" t="n">
         <v>1044.01</v>
@@ -1719,7 +1719,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1627.798788</v>
       </c>
       <c r="M14" t="n">
         <v>136.395</v>
@@ -1728,13 +1728,13 @@
         <v>275.8586266827258</v>
       </c>
       <c r="O14" t="n">
-        <v>7087.04</v>
+        <v>5459.241211999999</v>
       </c>
       <c r="P14" t="n">
-        <v>6811.181373317275</v>
+        <v>5183.382585317274</v>
       </c>
       <c r="Q14" t="n">
-        <v>6674.786373317274</v>
+        <v>5046.987585317274</v>
       </c>
       <c r="R14" t="n">
         <v>506.2171428571428</v>
@@ -1743,16 +1743,16 @@
         <v>9.742499999999998</v>
       </c>
       <c r="T14" t="n">
-        <v>486.5129552369482</v>
+        <v>370.2416132369481</v>
       </c>
       <c r="U14" t="n">
-        <v>476.7704552369482</v>
+        <v>360.4991132369482</v>
       </c>
       <c r="V14" t="n">
-        <v>51.9596759412002</v>
+        <v>51.95967594120019</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>0.08266861622140458</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1793,7 +1793,7 @@
         <v>24</v>
       </c>
       <c r="G15" t="n">
-        <v>52242.74</v>
+        <v>52242.74000000001</v>
       </c>
       <c r="H15" t="n">
         <v>12387.14</v>
@@ -1808,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>3855.033756</v>
       </c>
       <c r="M15" t="n">
         <v>1947.6795</v>
@@ -1817,31 +1817,31 @@
         <v>827.577159455418</v>
       </c>
       <c r="O15" t="n">
-        <v>12387.14</v>
+        <v>8532.106243999999</v>
       </c>
       <c r="P15" t="n">
-        <v>11559.56284054458</v>
+        <v>7704.529084544582</v>
       </c>
       <c r="Q15" t="n">
-        <v>9611.883340544582</v>
+        <v>5756.849584544581</v>
       </c>
       <c r="R15" t="n">
         <v>344.0872222222222</v>
       </c>
       <c r="S15" t="n">
-        <v>81.1533125</v>
+        <v>81.15331250000001</v>
       </c>
       <c r="T15" t="n">
-        <v>321.0989677929051</v>
+        <v>214.0146967929051</v>
       </c>
       <c r="U15" t="n">
-        <v>266.9967594595717</v>
+        <v>159.9124884595717</v>
       </c>
       <c r="V15" t="n">
         <v>6.359947825091345</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>0.07379080339201197</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>306.451152</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>636.930704783582</v>
       </c>
       <c r="O16" t="n">
-        <v>596.0799999999999</v>
+        <v>289.6288479999999</v>
       </c>
       <c r="P16" t="n">
-        <v>-40.85070478358196</v>
+        <v>-347.3018567835819</v>
       </c>
       <c r="Q16" t="n">
-        <v>-40.85070478358196</v>
+        <v>-347.3018567835819</v>
       </c>
       <c r="R16" t="n">
         <v>66.2311111111111</v>
@@ -1921,13 +1921,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>-4.538967198175773</v>
+        <v>-38.58909519817577</v>
       </c>
       <c r="U16" t="n">
-        <v>-4.538967198175773</v>
+        <v>-38.58909519817577</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>0.03068343881508004</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1983,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>2625.890652</v>
       </c>
       <c r="M17" t="n">
         <v>1663.675</v>
@@ -1992,13 +1992,13 @@
         <v>1076.50754133709</v>
       </c>
       <c r="O17" t="n">
-        <v>8799.190000000001</v>
+        <v>6173.299348</v>
       </c>
       <c r="P17" t="n">
-        <v>7722.682458662912</v>
+        <v>5096.79180666291</v>
       </c>
       <c r="Q17" t="n">
-        <v>6059.007458662909</v>
+        <v>3433.116806662911</v>
       </c>
       <c r="R17" t="n">
         <v>314.2567857142857</v>
@@ -2007,16 +2007,16 @@
         <v>92.42638888888888</v>
       </c>
       <c r="T17" t="n">
-        <v>275.8100878093897</v>
+        <v>182.0282788093896</v>
       </c>
       <c r="U17" t="n">
-        <v>216.3931235236753</v>
+        <v>122.6113145236754</v>
       </c>
       <c r="V17" t="n">
         <v>5.289007768945257</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>0.05717654662357998</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>204.419376</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -2081,13 +2081,13 @@
         <v>47.48993904895876</v>
       </c>
       <c r="O18" t="n">
-        <v>714.73</v>
+        <v>510.310624</v>
       </c>
       <c r="P18" t="n">
-        <v>667.2400609510412</v>
+        <v>462.8206849510412</v>
       </c>
       <c r="Q18" t="n">
-        <v>667.2400609510412</v>
+        <v>462.8206849510412</v>
       </c>
       <c r="R18" t="n">
         <v>238.2433333333333</v>
@@ -2096,13 +2096,13 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>222.4133536503471</v>
+        <v>154.2735616503471</v>
       </c>
       <c r="U18" t="n">
-        <v>222.4133536503471</v>
+        <v>154.2735616503471</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>0.0504</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2158,7 +2158,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>6.236496</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -2167,13 +2167,13 @@
         <v>7.545564423662764</v>
       </c>
       <c r="O19" t="n">
-        <v>58</v>
+        <v>51.763504</v>
       </c>
       <c r="P19" t="n">
-        <v>50.45443557633723</v>
+        <v>44.21793957633723</v>
       </c>
       <c r="Q19" t="n">
-        <v>50.45443557633723</v>
+        <v>44.21793957633723</v>
       </c>
       <c r="R19" t="n">
         <v>58</v>
@@ -2182,13 +2182,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>50.45443557633723</v>
+        <v>44.21793957633723</v>
       </c>
       <c r="U19" t="n">
-        <v>50.45443557633723</v>
+        <v>44.21793957633723</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>0.0252</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2229,13 +2229,13 @@
         <v>480</v>
       </c>
       <c r="G20" t="n">
-        <v>549827.5100000002</v>
+        <v>549827.5099999999</v>
       </c>
       <c r="H20" t="n">
-        <v>97249.66999999993</v>
+        <v>97249.66999999998</v>
       </c>
       <c r="I20" t="n">
-        <v>70686.49999999996</v>
+        <v>70686.50000000001</v>
       </c>
       <c r="J20" t="n">
         <v>26563.17</v>
@@ -2244,46 +2244,46 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>41198.983182</v>
       </c>
       <c r="M20" t="n">
         <v>17103.819</v>
       </c>
       <c r="N20" t="n">
-        <v>9559.583985867412</v>
+        <v>9559.58398586741</v>
       </c>
       <c r="O20" t="n">
-        <v>97249.66999999993</v>
+        <v>56050.686818</v>
       </c>
       <c r="P20" t="n">
-        <v>87690.08601413244</v>
+        <v>46491.10283213258</v>
       </c>
       <c r="Q20" t="n">
-        <v>70586.26701413252</v>
+        <v>29387.28383213258</v>
       </c>
       <c r="R20" t="n">
-        <v>202.6034791666665</v>
+        <v>202.6034791666666</v>
       </c>
       <c r="S20" t="n">
-        <v>35.63295625000001</v>
+        <v>35.63295625</v>
       </c>
       <c r="T20" t="n">
-        <v>182.6876791961093</v>
+        <v>96.85646423360954</v>
       </c>
       <c r="U20" t="n">
-        <v>147.0547229461094</v>
+        <v>61.22350798360955</v>
       </c>
       <c r="V20" t="n">
-        <v>5.685845365879977</v>
+        <v>5.685845365879982</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>0.07493074179209404</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.5297488843364708</v>
+        <v>0.5297488843364714</v>
       </c>
       <c r="Z20" t="n">
         <v>480</v>
@@ -2318,10 +2318,10 @@
         <v>1061</v>
       </c>
       <c r="G21" t="n">
-        <v>1867584.369999998</v>
+        <v>1867584.37</v>
       </c>
       <c r="H21" t="n">
-        <v>319562.1299999998</v>
+        <v>319562.13</v>
       </c>
       <c r="I21" t="n">
         <v>253197.95</v>
@@ -2333,46 +2333,46 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>130099.820508</v>
       </c>
       <c r="M21" t="n">
-        <v>32919.35750000001</v>
+        <v>32919.3575</v>
       </c>
       <c r="N21" t="n">
-        <v>33057.22326742377</v>
+        <v>33057.2232674237</v>
       </c>
       <c r="O21" t="n">
-        <v>319562.1299999998</v>
+        <v>189462.309492</v>
       </c>
       <c r="P21" t="n">
-        <v>286504.9067325767</v>
+        <v>156405.0862245763</v>
       </c>
       <c r="Q21" t="n">
-        <v>253585.549232577</v>
+        <v>123485.7287245763</v>
       </c>
       <c r="R21" t="n">
-        <v>173.8640533188247</v>
+        <v>173.8640533188248</v>
       </c>
       <c r="S21" t="n">
-        <v>31.02672714420359</v>
+        <v>31.02672714420358</v>
       </c>
       <c r="T21" t="n">
-        <v>155.8786217261026</v>
+        <v>85.09525909933421</v>
       </c>
       <c r="U21" t="n">
-        <v>137.968198711957</v>
+        <v>67.18483608518841</v>
       </c>
       <c r="V21" t="n">
-        <v>9.707423056479755</v>
+        <v>9.707423056479763</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>0.06966208466822839</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.7803654353778949</v>
+        <v>0.7803654353778939</v>
       </c>
       <c r="Z21" t="n">
         <v>787</v>
@@ -2407,13 +2407,13 @@
         <v>142</v>
       </c>
       <c r="G22" t="n">
-        <v>244996.6399999998</v>
+        <v>244996.64</v>
       </c>
       <c r="H22" t="n">
-        <v>14758.60000000001</v>
+        <v>14758.6</v>
       </c>
       <c r="I22" t="n">
-        <v>14700.60000000001</v>
+        <v>14700.6</v>
       </c>
       <c r="J22" t="n">
         <v>58</v>
@@ -2422,40 +2422,40 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>10929.368772</v>
       </c>
       <c r="M22" t="n">
-        <v>9008.424499999999</v>
+        <v>9008.424500000001</v>
       </c>
       <c r="N22" t="n">
-        <v>5515.924064425664</v>
+        <v>5515.924064425666</v>
       </c>
       <c r="O22" t="n">
-        <v>14758.60000000001</v>
+        <v>3829.231227999999</v>
       </c>
       <c r="P22" t="n">
-        <v>9242.675935574332</v>
+        <v>-1686.692836425668</v>
       </c>
       <c r="Q22" t="n">
-        <v>234.2514355743331</v>
+        <v>-10695.11733642567</v>
       </c>
       <c r="R22" t="n">
-        <v>68.64465116279074</v>
+        <v>68.64465116279069</v>
       </c>
       <c r="S22" t="n">
-        <v>63.43960915492957</v>
+        <v>63.43960915492958</v>
       </c>
       <c r="T22" t="n">
-        <v>42.98919039802015</v>
+        <v>-7.845082960119388</v>
       </c>
       <c r="U22" t="n">
-        <v>1.089541560810851</v>
+        <v>-49.74473179732869</v>
       </c>
       <c r="V22" t="n">
-        <v>1.638310894429987</v>
+        <v>1.638310894429986</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>0.04461028025527209</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2511,22 +2511,22 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>11355.44256</v>
       </c>
       <c r="M23" t="n">
         <v>15940.4425</v>
       </c>
       <c r="N23" t="n">
-        <v>5326.748824778615</v>
+        <v>5326.748824778617</v>
       </c>
       <c r="O23" t="n">
-        <v>17818.1</v>
+        <v>6462.657439999999</v>
       </c>
       <c r="P23" t="n">
-        <v>12491.35117522138</v>
+        <v>1135.908615221382</v>
       </c>
       <c r="Q23" t="n">
-        <v>-3449.091324778617</v>
+        <v>-14804.53388477862</v>
       </c>
       <c r="R23" t="n">
         <v>139.20390625</v>
@@ -2535,22 +2535,22 @@
         <v>124.53470703125</v>
       </c>
       <c r="T23" t="n">
-        <v>97.58868105641706</v>
+        <v>8.874286056417048</v>
       </c>
       <c r="U23" t="n">
-        <v>-26.94602597483295</v>
+        <v>-115.6604209748329</v>
       </c>
       <c r="V23" t="n">
         <v>1.117792056274473</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>0.04626036330263388</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.9322984071900511</v>
+        <v>0.932298407190051</v>
       </c>
       <c r="Z23" t="n">
         <v>128</v>
@@ -2585,10 +2585,10 @@
         <v>611</v>
       </c>
       <c r="G24" t="n">
-        <v>1189382.619999999</v>
+        <v>1189382.62</v>
       </c>
       <c r="H24" t="n">
-        <v>176407.7200000001</v>
+        <v>176407.72</v>
       </c>
       <c r="I24" t="n">
         <v>163176.72</v>
@@ -2600,46 +2600,46 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>82306.0539</v>
       </c>
       <c r="M24" t="n">
-        <v>23907.48799999998</v>
+        <v>23907.488</v>
       </c>
       <c r="N24" t="n">
-        <v>19259.16120068676</v>
+        <v>19259.16120068672</v>
       </c>
       <c r="O24" t="n">
-        <v>176407.7200000001</v>
+        <v>94101.66610000002</v>
       </c>
       <c r="P24" t="n">
-        <v>157148.5587993132</v>
+        <v>74842.50489931328</v>
       </c>
       <c r="Q24" t="n">
-        <v>133241.0707993132</v>
+        <v>50935.01689931327</v>
       </c>
       <c r="R24" t="n">
-        <v>190.917445887446</v>
+        <v>190.9174458874459</v>
       </c>
       <c r="S24" t="n">
-        <v>39.12845826513909</v>
+        <v>39.12845826513912</v>
       </c>
       <c r="T24" t="n">
-        <v>170.0741978347546</v>
+        <v>80.99838192566372</v>
       </c>
       <c r="U24" t="n">
-        <v>144.2002930728497</v>
+        <v>55.12447716375895</v>
       </c>
       <c r="V24" t="n">
-        <v>7.378764343623227</v>
+        <v>7.378764343623219</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>0.06920065294043057</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.9304152771292388</v>
+        <v>0.9304152771292385</v>
       </c>
       <c r="Z24" t="n">
         <v>447</v>
@@ -2689,7 +2689,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>6.8796</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -2698,13 +2698,13 @@
         <v>85.58951574863764</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>-6.8796</v>
       </c>
       <c r="P25" t="n">
-        <v>-85.58951574863764</v>
+        <v>-92.46911574863763</v>
       </c>
       <c r="Q25" t="n">
-        <v>-85.58951574863764</v>
+        <v>-92.46911574863763</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2713,13 +2713,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>-85.58951574863764</v>
+        <v>-92.46911574863763</v>
       </c>
       <c r="U25" t="n">
-        <v>-85.58951574863764</v>
+        <v>-92.46911574863763</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>0.0252</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2775,22 +2775,22 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>2485.272888</v>
       </c>
       <c r="M26" t="n">
-        <v>345.3554999999999</v>
+        <v>345.3555</v>
       </c>
       <c r="N26" t="n">
         <v>283.3810421304161</v>
       </c>
       <c r="O26" t="n">
-        <v>3813.02</v>
+        <v>1327.747112</v>
       </c>
       <c r="P26" t="n">
-        <v>3529.638957869584</v>
+        <v>1044.366069869584</v>
       </c>
       <c r="Q26" t="n">
-        <v>3184.283457869584</v>
+        <v>699.0105698695842</v>
       </c>
       <c r="R26" t="n">
         <v>224.295294117647</v>
@@ -2799,16 +2799,16 @@
         <v>28.779625</v>
       </c>
       <c r="T26" t="n">
-        <v>207.625821051152</v>
+        <v>61.4332982276226</v>
       </c>
       <c r="U26" t="n">
-        <v>187.3107916393873</v>
+        <v>41.1182688158579</v>
       </c>
       <c r="V26" t="n">
         <v>11.04085500303311</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>0.08073815116615646</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2852,10 +2852,10 @@
         <v>28655.65</v>
       </c>
       <c r="H27" t="n">
-        <v>7035.419999999999</v>
+        <v>7035.42</v>
       </c>
       <c r="I27" t="n">
-        <v>6745.419999999999</v>
+        <v>6745.42</v>
       </c>
       <c r="J27" t="n">
         <v>290</v>
@@ -2864,40 +2864,40 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>2537.535924</v>
       </c>
       <c r="M27" t="n">
         <v>1503.7245</v>
       </c>
       <c r="N27" t="n">
-        <v>543.1059061111323</v>
+        <v>543.1059061111322</v>
       </c>
       <c r="O27" t="n">
-        <v>7035.419999999999</v>
+        <v>4497.884076</v>
       </c>
       <c r="P27" t="n">
-        <v>6492.314093888868</v>
+        <v>3954.778169888868</v>
       </c>
       <c r="Q27" t="n">
-        <v>4988.589593888868</v>
+        <v>2451.053669888868</v>
       </c>
       <c r="R27" t="n">
-        <v>502.5299999999999</v>
+        <v>502.53</v>
       </c>
       <c r="S27" t="n">
         <v>107.4088928571429</v>
       </c>
       <c r="T27" t="n">
-        <v>463.736720992062</v>
+        <v>282.484154992062</v>
       </c>
       <c r="U27" t="n">
-        <v>356.3278281349191</v>
+        <v>175.0752621349191</v>
       </c>
       <c r="V27" t="n">
         <v>4.678662880068789</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>0.08855272604181026</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2938,7 +2938,7 @@
         <v>24</v>
       </c>
       <c r="G28" t="n">
-        <v>65110.26000000001</v>
+        <v>65110.25999999999</v>
       </c>
       <c r="H28" t="n">
         <v>14609.02</v>
@@ -2953,22 +2953,22 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>4231.77741</v>
       </c>
       <c r="M28" t="n">
         <v>256.6365</v>
       </c>
       <c r="N28" t="n">
-        <v>903.3981766100419</v>
+        <v>903.3981766100418</v>
       </c>
       <c r="O28" t="n">
-        <v>14609.02</v>
+        <v>10377.24259</v>
       </c>
       <c r="P28" t="n">
-        <v>13705.62182338996</v>
+        <v>9473.844413389957</v>
       </c>
       <c r="Q28" t="n">
-        <v>13448.98532338996</v>
+        <v>9217.207913389957</v>
       </c>
       <c r="R28" t="n">
         <v>317.5873913043478</v>
@@ -2977,22 +2977,22 @@
         <v>10.6931875</v>
       </c>
       <c r="T28" t="n">
-        <v>297.9483005084774</v>
+        <v>205.9531394215208</v>
       </c>
       <c r="U28" t="n">
-        <v>292.3692461606512</v>
+        <v>200.3740850736947</v>
       </c>
       <c r="V28" t="n">
-        <v>56.92495027012915</v>
+        <v>56.92495027012914</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>0.06499401799347752</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.7654678387092909</v>
+        <v>0.765467838709291</v>
       </c>
       <c r="Z28" t="n">
         <v>9</v>
@@ -3042,22 +3042,22 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>627.630948</v>
       </c>
       <c r="M29" t="n">
         <v>250</v>
       </c>
       <c r="N29" t="n">
-        <v>637.4267405674555</v>
+        <v>637.4267405674553</v>
       </c>
       <c r="O29" t="n">
-        <v>817.9399999999999</v>
+        <v>190.309052</v>
       </c>
       <c r="P29" t="n">
-        <v>180.5132594325446</v>
+        <v>-447.1176885674554</v>
       </c>
       <c r="Q29" t="n">
-        <v>-69.48674056745548</v>
+        <v>-697.1176885674554</v>
       </c>
       <c r="R29" t="n">
         <v>51.12125</v>
@@ -3066,22 +3066,22 @@
         <v>35.71428571428572</v>
       </c>
       <c r="T29" t="n">
-        <v>11.28207871453404</v>
+        <v>-27.94485553546597</v>
       </c>
       <c r="U29" t="n">
-        <v>-4.342921285465968</v>
+        <v>-43.56985553546596</v>
       </c>
       <c r="V29" t="n">
         <v>3.27176</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>0.02540846251161359</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.8912570617752257</v>
+        <v>0.8912570617752255</v>
       </c>
       <c r="Z29" t="n">
         <v>1</v>
@@ -3116,13 +3116,13 @@
         <v>12</v>
       </c>
       <c r="G30" t="n">
-        <v>29113.49000000001</v>
+        <v>29113.49</v>
       </c>
       <c r="H30" t="n">
-        <v>4192.6</v>
+        <v>4192.599999999999</v>
       </c>
       <c r="I30" t="n">
-        <v>4076.6</v>
+        <v>4076.599999999999</v>
       </c>
       <c r="J30" t="n">
         <v>116</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>2150.593956</v>
       </c>
       <c r="M30" t="n">
         <v>750</v>
@@ -3140,13 +3140,13 @@
         <v>369.7134884807369</v>
       </c>
       <c r="O30" t="n">
-        <v>4192.6</v>
+        <v>2042.006044</v>
       </c>
       <c r="P30" t="n">
-        <v>3822.886511519263</v>
+        <v>1672.292555519263</v>
       </c>
       <c r="Q30" t="n">
-        <v>3072.886511519263</v>
+        <v>922.2925555192626</v>
       </c>
       <c r="R30" t="n">
         <v>182.2869565217391</v>
@@ -3155,16 +3155,16 @@
         <v>62.5</v>
       </c>
       <c r="T30" t="n">
-        <v>166.2124570225766</v>
+        <v>72.70837197909839</v>
       </c>
       <c r="U30" t="n">
-        <v>133.6037613704027</v>
+        <v>40.09967632692446</v>
       </c>
       <c r="V30" t="n">
-        <v>5.590133333333334</v>
+        <v>5.590133333333332</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>0.07386932847968415</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -3208,7 +3208,7 @@
         <v>267094.54</v>
       </c>
       <c r="H31" t="n">
-        <v>49816.23999999999</v>
+        <v>49816.24000000001</v>
       </c>
       <c r="I31" t="n">
         <v>37362.24000000001</v>
@@ -3220,46 +3220,46 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>21868.869204</v>
       </c>
       <c r="M31" t="n">
-        <v>8761.369000000004</v>
+        <v>8761.369000000001</v>
       </c>
       <c r="N31" t="n">
-        <v>4928.49847563628</v>
+        <v>4928.498475636277</v>
       </c>
       <c r="O31" t="n">
-        <v>49816.23999999999</v>
+        <v>27947.370796</v>
       </c>
       <c r="P31" t="n">
-        <v>44887.74152436374</v>
+        <v>23018.87232036373</v>
       </c>
       <c r="Q31" t="n">
-        <v>36126.37252436372</v>
+        <v>14257.50332036372</v>
       </c>
       <c r="R31" t="n">
-        <v>211.984</v>
+        <v>211.9840000000001</v>
       </c>
       <c r="S31" t="n">
-        <v>37.28242127659576</v>
+        <v>37.28242127659575</v>
       </c>
       <c r="T31" t="n">
-        <v>191.0116660611223</v>
+        <v>97.95264817176054</v>
       </c>
       <c r="U31" t="n">
-        <v>153.7292447845265</v>
+        <v>60.67022689516477</v>
       </c>
       <c r="V31" t="n">
-        <v>5.685896804483405</v>
+        <v>5.68589680448341</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>0.08187688600448367</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.576612049051995</v>
+        <v>0.5766120490519948</v>
       </c>
       <c r="Z31" t="n">
         <v>235</v>
@@ -3294,55 +3294,55 @@
         <v>1019</v>
       </c>
       <c r="G32" t="n">
-        <v>1741655.42</v>
+        <v>1741655.419999999</v>
       </c>
       <c r="H32" t="n">
-        <v>306669.09</v>
+        <v>306669.0900000001</v>
       </c>
       <c r="I32" t="n">
         <v>244009.01</v>
       </c>
       <c r="J32" t="n">
-        <v>62660.08</v>
+        <v>62660.08000000001</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>122182.998966</v>
       </c>
       <c r="M32" t="n">
         <v>16963.0325</v>
       </c>
       <c r="N32" t="n">
-        <v>28124.9140361748</v>
+        <v>28124.91403617478</v>
       </c>
       <c r="O32" t="n">
-        <v>306669.09</v>
+        <v>184486.091034</v>
       </c>
       <c r="P32" t="n">
-        <v>278544.1759638264</v>
+        <v>156361.1769978252</v>
       </c>
       <c r="Q32" t="n">
-        <v>261581.1434638269</v>
+        <v>139398.1444978252</v>
       </c>
       <c r="R32" t="n">
         <v>163.906515232496</v>
       </c>
       <c r="S32" t="n">
-        <v>16.64674435721295</v>
+        <v>16.64674435721296</v>
       </c>
       <c r="T32" t="n">
-        <v>148.8744927652733</v>
+        <v>83.57091234517651</v>
       </c>
       <c r="U32" t="n">
-        <v>139.808200675482</v>
+        <v>74.50462025538495</v>
       </c>
       <c r="V32" t="n">
         <v>18.07867136963866</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>0.07015337107612254</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3398,46 +3398,46 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>15782.070528</v>
       </c>
       <c r="M33" t="n">
-        <v>4459.800499999999</v>
+        <v>4459.8005</v>
       </c>
       <c r="N33" t="n">
-        <v>5108.576726242918</v>
+        <v>5108.576726242924</v>
       </c>
       <c r="O33" t="n">
-        <v>21479.55</v>
+        <v>5697.479472</v>
       </c>
       <c r="P33" t="n">
-        <v>16370.97327375708</v>
+        <v>588.9027457570776</v>
       </c>
       <c r="Q33" t="n">
-        <v>11911.17277375708</v>
+        <v>-3870.897754242921</v>
       </c>
       <c r="R33" t="n">
-        <v>95.8908482142857</v>
+        <v>95.89084821428573</v>
       </c>
       <c r="S33" t="n">
-        <v>30.7572448275862</v>
+        <v>30.75724482758621</v>
       </c>
       <c r="T33" t="n">
-        <v>73.08470211498697</v>
+        <v>2.629030114986953</v>
       </c>
       <c r="U33" t="n">
-        <v>53.17487845427267</v>
+        <v>-17.28079354572733</v>
       </c>
       <c r="V33" t="n">
-        <v>4.81625803665433</v>
+        <v>4.816258036654331</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>0.0485731090596538</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.9655255576449308</v>
+        <v>0.9655255576449305</v>
       </c>
       <c r="Z33" t="n">
         <v>47</v>
@@ -3475,10 +3475,10 @@
         <v>144958.5</v>
       </c>
       <c r="H34" t="n">
-        <v>9581.429999999998</v>
+        <v>9581.43</v>
       </c>
       <c r="I34" t="n">
-        <v>7090.81</v>
+        <v>7090.809999999999</v>
       </c>
       <c r="J34" t="n">
         <v>2490.62</v>
@@ -3487,40 +3487,40 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>6728.540741999999</v>
       </c>
       <c r="M34" t="n">
-        <v>9058.339500000002</v>
+        <v>9058.3395</v>
       </c>
       <c r="N34" t="n">
-        <v>2807.585863191751</v>
+        <v>2807.58586319175</v>
       </c>
       <c r="O34" t="n">
-        <v>9581.429999999998</v>
+        <v>2852.889258000001</v>
       </c>
       <c r="P34" t="n">
-        <v>6773.844136808249</v>
+        <v>45.30339480824955</v>
       </c>
       <c r="Q34" t="n">
-        <v>-2284.495363191751</v>
+        <v>-9013.03610519175</v>
       </c>
       <c r="R34" t="n">
         <v>138.8613043478261</v>
       </c>
       <c r="S34" t="n">
-        <v>131.2802826086957</v>
+        <v>131.2802826086956</v>
       </c>
       <c r="T34" t="n">
-        <v>98.17165415664128</v>
+        <v>0.6565709392499934</v>
       </c>
       <c r="U34" t="n">
-        <v>-33.10862845205435</v>
+        <v>-130.6237116694456</v>
       </c>
       <c r="V34" t="n">
-        <v>1.057746842012269</v>
+        <v>1.05774684201227</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>0.04641701412473224</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3561,13 +3561,13 @@
         <v>617</v>
       </c>
       <c r="G35" t="n">
-        <v>1214338.799999999</v>
+        <v>1214338.8</v>
       </c>
       <c r="H35" t="n">
         <v>169391.65</v>
       </c>
       <c r="I35" t="n">
-        <v>157405.1299999999</v>
+        <v>157405.13</v>
       </c>
       <c r="J35" t="n">
         <v>11986.52</v>
@@ -3576,40 +3576,40 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>81315.50263199999</v>
       </c>
       <c r="M35" t="n">
         <v>16678.783</v>
       </c>
       <c r="N35" t="n">
-        <v>18177.12651520507</v>
+        <v>18177.12651520504</v>
       </c>
       <c r="O35" t="n">
-        <v>169391.65</v>
+        <v>88076.14736799999</v>
       </c>
       <c r="P35" t="n">
-        <v>151214.5234847951</v>
+        <v>69899.02085279496</v>
       </c>
       <c r="Q35" t="n">
-        <v>134535.7404847948</v>
+        <v>53220.23785279495</v>
       </c>
       <c r="R35" t="n">
-        <v>162.5639635316698</v>
+        <v>162.5639635316699</v>
       </c>
       <c r="S35" t="n">
         <v>27.03206320907617</v>
       </c>
       <c r="T35" t="n">
-        <v>145.119504304026</v>
+        <v>67.0815939086324</v>
       </c>
       <c r="U35" t="n">
-        <v>129.1129947070968</v>
+        <v>51.07508431170341</v>
       </c>
       <c r="V35" t="n">
         <v>10.15611570700332</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>0.06696278059467423</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3650,7 +3650,7 @@
         <v>13</v>
       </c>
       <c r="G36" t="n">
-        <v>19528.23000000001</v>
+        <v>19528.23</v>
       </c>
       <c r="H36" t="n">
         <v>2706.58</v>
@@ -3665,7 +3665,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>1160.012196</v>
       </c>
       <c r="M36" t="n">
         <v>408.708</v>
@@ -3674,13 +3674,13 @@
         <v>414.5398423074384</v>
       </c>
       <c r="O36" t="n">
-        <v>2706.58</v>
+        <v>1546.567804</v>
       </c>
       <c r="P36" t="n">
-        <v>2292.040157692561</v>
+        <v>1132.027961692562</v>
       </c>
       <c r="Q36" t="n">
-        <v>1883.332157692562</v>
+        <v>723.3199616925616</v>
       </c>
       <c r="R36" t="n">
         <v>123.0263636363636</v>
@@ -3689,16 +3689,16 @@
         <v>31.43907692307692</v>
       </c>
       <c r="T36" t="n">
-        <v>104.1836435314801</v>
+        <v>51.45581644057098</v>
       </c>
       <c r="U36" t="n">
-        <v>85.60600716784371</v>
+        <v>32.87818007693462</v>
       </c>
       <c r="V36" t="n">
         <v>6.622282901240006</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>0.05940180938057366</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3754,22 +3754,22 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>701.112132</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>286.8553899721457</v>
+        <v>286.8553899721456</v>
       </c>
       <c r="O37" t="n">
-        <v>2602.65</v>
+        <v>1901.537868</v>
       </c>
       <c r="P37" t="n">
-        <v>2315.794610027854</v>
+        <v>1614.682478027854</v>
       </c>
       <c r="Q37" t="n">
-        <v>2315.794610027854</v>
+        <v>1614.682478027854</v>
       </c>
       <c r="R37" t="n">
         <v>162.665625</v>
@@ -3778,13 +3778,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>144.7371631267409</v>
+        <v>100.9176548767409</v>
       </c>
       <c r="U37" t="n">
-        <v>144.7371631267409</v>
+        <v>100.9176548767409</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>0.04887103192001768</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3831,7 +3831,7 @@
         <v>973.53</v>
       </c>
       <c r="I38" t="n">
-        <v>915.5300000000001</v>
+        <v>915.53</v>
       </c>
       <c r="J38" t="n">
         <v>58</v>
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1034.831952</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -3849,13 +3849,13 @@
         <v>1218.765212791343</v>
       </c>
       <c r="O38" t="n">
-        <v>973.53</v>
+        <v>-61.301952</v>
       </c>
       <c r="P38" t="n">
-        <v>-245.2352127913431</v>
+        <v>-1280.067164791343</v>
       </c>
       <c r="Q38" t="n">
-        <v>-245.2352127913431</v>
+        <v>-1280.067164791343</v>
       </c>
       <c r="R38" t="n">
         <v>57.26647058823529</v>
@@ -3864,13 +3864,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>-14.42560075243195</v>
+        <v>-75.29806851713784</v>
       </c>
       <c r="U38" t="n">
-        <v>-14.42560075243195</v>
+        <v>-75.29806851713784</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>0.03601797056070814</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>3583.44882</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -3935,13 +3935,13 @@
         <v>1171.592973995011</v>
       </c>
       <c r="O39" t="n">
-        <v>12410.76</v>
+        <v>8827.311180000001</v>
       </c>
       <c r="P39" t="n">
-        <v>11239.16702600499</v>
+        <v>7655.718206004989</v>
       </c>
       <c r="Q39" t="n">
-        <v>11239.16702600499</v>
+        <v>7655.718206004989</v>
       </c>
       <c r="R39" t="n">
         <v>443.2414285714286</v>
@@ -3950,19 +3950,19 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>401.3988223573211</v>
+        <v>273.4185073573211</v>
       </c>
       <c r="U39" t="n">
-        <v>401.3988223573211</v>
+        <v>273.4185073573211</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>0.06848159637114019</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.8996429771296677</v>
+        <v>0.8996429771296676</v>
       </c>
       <c r="Z39" t="n">
         <v>0</v>
@@ -4012,7 +4012,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>36.00198</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -4021,13 +4021,13 @@
         <v>17.76631796410369</v>
       </c>
       <c r="O40" t="n">
-        <v>57.6</v>
+        <v>21.59802</v>
       </c>
       <c r="P40" t="n">
-        <v>39.83368203589631</v>
+        <v>3.831702035896313</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.83368203589631</v>
+        <v>3.831702035896313</v>
       </c>
       <c r="R40" t="n">
         <v>28.8</v>
@@ -4036,13 +4036,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>19.91684101794815</v>
+        <v>1.915851017948157</v>
       </c>
       <c r="U40" t="n">
-        <v>19.91684101794815</v>
+        <v>1.915851017948157</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>0.03991571594877765</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -4083,58 +4083,58 @@
         <v>680</v>
       </c>
       <c r="G41" t="n">
-        <v>1415556.589999999</v>
+        <v>1415556.59</v>
       </c>
       <c r="H41" t="n">
-        <v>250921.9700000001</v>
+        <v>250921.97</v>
       </c>
       <c r="I41" t="n">
-        <v>206896.2500000001</v>
+        <v>206896.25</v>
       </c>
       <c r="J41" t="n">
-        <v>44025.72</v>
+        <v>44025.71999999999</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>99780.26599800005</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>23651.55192985129</v>
+        <v>23651.55192985139</v>
       </c>
       <c r="O41" t="n">
-        <v>250921.9700000001</v>
+        <v>151141.704002</v>
       </c>
       <c r="P41" t="n">
-        <v>227270.4180701483</v>
+        <v>127490.1520721486</v>
       </c>
       <c r="Q41" t="n">
-        <v>227270.4180701483</v>
+        <v>127490.1520721486</v>
       </c>
       <c r="R41" t="n">
-        <v>188.2385371342837</v>
+        <v>188.2385371342836</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>170.4954374119642</v>
+        <v>95.64152443522025</v>
       </c>
       <c r="U41" t="n">
-        <v>170.4954374119642</v>
+        <v>95.64152443522025</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>0.0704883624596033</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.7840976601295742</v>
+        <v>0.784097660129575</v>
       </c>
       <c r="Z41" t="n">
         <v>0</v>
@@ -4169,7 +4169,7 @@
         <v>117</v>
       </c>
       <c r="G42" t="n">
-        <v>307190.1000000002</v>
+        <v>307190.1</v>
       </c>
       <c r="H42" t="n">
         <v>20257.71</v>
@@ -4184,43 +4184,43 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>14804.838972</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>8494.125882832281</v>
+        <v>8494.125882832277</v>
       </c>
       <c r="O42" t="n">
-        <v>20257.71</v>
+        <v>5452.871028</v>
       </c>
       <c r="P42" t="n">
-        <v>11763.58411716772</v>
+        <v>-3041.25485483228</v>
       </c>
       <c r="Q42" t="n">
-        <v>11763.58411716772</v>
+        <v>-3041.25485483228</v>
       </c>
       <c r="R42" t="n">
-        <v>86.57141025641023</v>
+        <v>86.57141025641027</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>50.27172699644323</v>
+        <v>-12.99681561894137</v>
       </c>
       <c r="U42" t="n">
-        <v>50.27172699644323</v>
+        <v>-12.99681561894137</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>0.04819438833478032</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.9667745477474693</v>
+        <v>0.9667745477474694</v>
       </c>
       <c r="Z42" t="n">
         <v>0</v>
@@ -4255,13 +4255,13 @@
         <v>486</v>
       </c>
       <c r="G43" t="n">
-        <v>1386901.119999999</v>
+        <v>1386901.12</v>
       </c>
       <c r="H43" t="n">
-        <v>186915.1400000001</v>
+        <v>186915.14</v>
       </c>
       <c r="I43" t="n">
-        <v>175953.1400000002</v>
+        <v>175953.14</v>
       </c>
       <c r="J43" t="n">
         <v>10962</v>
@@ -4270,43 +4270,43 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>95744.15172000001</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>23753.10400039685</v>
+        <v>23753.10400039691</v>
       </c>
       <c r="O43" t="n">
-        <v>186915.1400000001</v>
+        <v>91170.98828000001</v>
       </c>
       <c r="P43" t="n">
-        <v>163162.035999603</v>
+        <v>67417.88427960309</v>
       </c>
       <c r="Q43" t="n">
-        <v>163162.035999603</v>
+        <v>67417.88427960309</v>
       </c>
       <c r="R43" t="n">
-        <v>177.5072554605889</v>
+        <v>177.5072554605888</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>154.9497018039915</v>
+        <v>64.0245814621112</v>
       </c>
       <c r="U43" t="n">
-        <v>154.9497018039915</v>
+        <v>64.0245814621112</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>0.06903459110336575</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.9039225089096484</v>
+        <v>0.9039225089096474</v>
       </c>
       <c r="Z43" t="n">
         <v>0</v>
@@ -4356,7 +4356,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>948.3533639999999</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -4365,13 +4365,13 @@
         <v>502.3179558876438</v>
       </c>
       <c r="O44" t="n">
-        <v>2785.69</v>
+        <v>1837.336636</v>
       </c>
       <c r="P44" t="n">
-        <v>2283.372044112356</v>
+        <v>1335.018680112356</v>
       </c>
       <c r="Q44" t="n">
-        <v>2283.372044112356</v>
+        <v>1335.018680112356</v>
       </c>
       <c r="R44" t="n">
         <v>174.105625</v>
@@ -4380,19 +4380,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>142.7107527570222</v>
+        <v>83.43866750702226</v>
       </c>
       <c r="U44" t="n">
-        <v>142.7107527570222</v>
+        <v>83.43866750702226</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>0.05770594587884807</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.9945570954300292</v>
+        <v>0.9945570954300291</v>
       </c>
       <c r="Z44" t="n">
         <v>0</v>
@@ -4433,7 +4433,7 @@
         <v>8780.18</v>
       </c>
       <c r="I45" t="n">
-        <v>7736.180000000001</v>
+        <v>7736.18</v>
       </c>
       <c r="J45" t="n">
         <v>1044</v>
@@ -4442,22 +4442,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>2666.536488</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>571.6308692175653</v>
+        <v>571.6308692175651</v>
       </c>
       <c r="O45" t="n">
-        <v>8780.18</v>
+        <v>6113.643512000001</v>
       </c>
       <c r="P45" t="n">
-        <v>8208.549130782432</v>
+        <v>5542.012642782434</v>
       </c>
       <c r="Q45" t="n">
-        <v>8208.549130782432</v>
+        <v>5542.012642782434</v>
       </c>
       <c r="R45" t="n">
         <v>381.7469565217392</v>
@@ -4466,13 +4466,13 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>356.8934404688014</v>
+        <v>240.9570714253232</v>
       </c>
       <c r="U45" t="n">
-        <v>356.8934404688014</v>
+        <v>240.9570714253232</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>0.07797312100215947</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4528,7 +4528,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>606.3440039999999</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -4537,13 +4537,13 @@
         <v>498.7947467780194</v>
       </c>
       <c r="O46" t="n">
-        <v>1929.59</v>
+        <v>1323.245996</v>
       </c>
       <c r="P46" t="n">
-        <v>1430.79525322198</v>
+        <v>824.4512492219806</v>
       </c>
       <c r="Q46" t="n">
-        <v>1430.79525322198</v>
+        <v>824.4512492219806</v>
       </c>
       <c r="R46" t="n">
         <v>148.43</v>
@@ -4552,13 +4552,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>110.0611733247677</v>
+        <v>63.41932686322927</v>
       </c>
       <c r="U46" t="n">
-        <v>110.0611733247677</v>
+        <v>63.41932686322927</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>0.03481398314718994</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4614,7 +4614,7 @@
         <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>5281.144974</v>
       </c>
       <c r="M47" t="n">
         <v>0</v>
@@ -4623,13 +4623,13 @@
         <v>2064.244789646323</v>
       </c>
       <c r="O47" t="n">
-        <v>24699.89</v>
+        <v>19418.745026</v>
       </c>
       <c r="P47" t="n">
-        <v>22635.64521035368</v>
+        <v>17354.50023635367</v>
       </c>
       <c r="Q47" t="n">
-        <v>22635.64521035368</v>
+        <v>17354.50023635367</v>
       </c>
       <c r="R47" t="n">
         <v>796.7706451612903</v>
@@ -4638,13 +4638,13 @@
         <v>0</v>
       </c>
       <c r="T47" t="n">
-        <v>730.182103559796</v>
+        <v>559.8225882694734</v>
       </c>
       <c r="U47" t="n">
-        <v>730.182103559796</v>
+        <v>559.8225882694734</v>
       </c>
       <c r="W47" t="n">
-        <v>0</v>
+        <v>0.0831287697767768</v>
       </c>
       <c r="X47" t="n">
         <v>0</v>
@@ -4700,7 +4700,7 @@
         <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>185.47704</v>
       </c>
       <c r="M48" t="n">
         <v>0</v>
@@ -4709,13 +4709,13 @@
         <v>125.935910251244</v>
       </c>
       <c r="O48" t="n">
-        <v>99.19999999999999</v>
+        <v>-86.27704000000001</v>
       </c>
       <c r="P48" t="n">
-        <v>-26.73591025124404</v>
+        <v>-212.2129502512441</v>
       </c>
       <c r="Q48" t="n">
-        <v>-26.73591025124404</v>
+        <v>-212.2129502512441</v>
       </c>
       <c r="R48" t="n">
         <v>49.59999999999999</v>
@@ -4724,13 +4724,13 @@
         <v>0</v>
       </c>
       <c r="T48" t="n">
-        <v>-13.36795512562202</v>
+        <v>-106.106475125622</v>
       </c>
       <c r="U48" t="n">
-        <v>-13.36795512562202</v>
+        <v>-106.106475125622</v>
       </c>
       <c r="W48" t="n">
-        <v>0</v>
+        <v>0.02641332934592216</v>
       </c>
       <c r="X48" t="n">
         <v>0</v>
@@ -4771,13 +4771,13 @@
         <v>586</v>
       </c>
       <c r="G49" t="n">
-        <v>1420725.590000001</v>
+        <v>1420725.59</v>
       </c>
       <c r="H49" t="n">
-        <v>269058.9900000003</v>
+        <v>269058.99</v>
       </c>
       <c r="I49" t="n">
-        <v>226232.7400000001</v>
+        <v>226232.74</v>
       </c>
       <c r="J49" t="n">
         <v>42826.25</v>
@@ -4786,43 +4786,43 @@
         <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>107796.316446</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>19199.38247354966</v>
+        <v>19199.38247354962</v>
       </c>
       <c r="O49" t="n">
-        <v>269058.9900000003</v>
+        <v>161262.673554</v>
       </c>
       <c r="P49" t="n">
-        <v>249859.6075264504</v>
+        <v>142063.2910804503</v>
       </c>
       <c r="Q49" t="n">
-        <v>249859.6075264504</v>
+        <v>142063.2910804503</v>
       </c>
       <c r="R49" t="n">
-        <v>220.1792062193129</v>
+        <v>220.1792062193126</v>
       </c>
       <c r="S49" t="n">
         <v>0</v>
       </c>
       <c r="T49" t="n">
-        <v>204.4677639332654</v>
+        <v>116.2547390183718</v>
       </c>
       <c r="U49" t="n">
-        <v>204.4677639332654</v>
+        <v>116.2547390183718</v>
       </c>
       <c r="W49" t="n">
-        <v>0</v>
+        <v>0.07587412882877687</v>
       </c>
       <c r="X49" t="n">
         <v>0</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.7598444045763963</v>
+        <v>0.7598444045763969</v>
       </c>
       <c r="Z49" t="n">
         <v>0</v>
@@ -4872,43 +4872,43 @@
         <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>15641.08056</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>9124.187885813812</v>
+        <v>9124.18788581381</v>
       </c>
       <c r="O50" t="n">
-        <v>22312.3</v>
+        <v>6671.219440000001</v>
       </c>
       <c r="P50" t="n">
-        <v>13188.11211418616</v>
+        <v>-2452.968445813811</v>
       </c>
       <c r="Q50" t="n">
-        <v>13188.11211418616</v>
+        <v>-2452.968445813811</v>
       </c>
       <c r="R50" t="n">
-        <v>81.73003663003661</v>
+        <v>81.73003663003662</v>
       </c>
       <c r="S50" t="n">
         <v>0</v>
       </c>
       <c r="T50" t="n">
-        <v>48.30810298236689</v>
+        <v>-8.985232402248391</v>
       </c>
       <c r="U50" t="n">
-        <v>48.30810298236689</v>
+        <v>-8.985232402248391</v>
       </c>
       <c r="W50" t="n">
-        <v>0</v>
+        <v>0.05074415200262528</v>
       </c>
       <c r="X50" t="n">
         <v>0</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.9660847118984053</v>
+        <v>0.9660847118984057</v>
       </c>
       <c r="Z50" t="n">
         <v>0</v>
@@ -4943,13 +4943,13 @@
         <v>515</v>
       </c>
       <c r="G51" t="n">
-        <v>1645951.570000001</v>
+        <v>1645951.57</v>
       </c>
       <c r="H51" t="n">
-        <v>261170.0000000001</v>
+        <v>261170</v>
       </c>
       <c r="I51" t="n">
-        <v>244440.5100000002</v>
+        <v>244440.51</v>
       </c>
       <c r="J51" t="n">
         <v>16729.49</v>
@@ -4958,43 +4958,43 @@
         <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>121200.90255</v>
       </c>
       <c r="M51" t="n">
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>27811.60988431294</v>
+        <v>27811.60988431282</v>
       </c>
       <c r="O51" t="n">
-        <v>261170.0000000001</v>
+        <v>139969.09745</v>
       </c>
       <c r="P51" t="n">
-        <v>233358.3901156869</v>
+        <v>112157.4875656872</v>
       </c>
       <c r="Q51" t="n">
-        <v>233358.3901156869</v>
+        <v>112157.4875656872</v>
       </c>
       <c r="R51" t="n">
-        <v>218.3695652173914</v>
+        <v>218.3695652173913</v>
       </c>
       <c r="S51" t="n">
         <v>0</v>
       </c>
       <c r="T51" t="n">
-        <v>195.1157107990693</v>
+        <v>93.77716351646085</v>
       </c>
       <c r="U51" t="n">
-        <v>195.1157107990693</v>
+        <v>93.77716351646085</v>
       </c>
       <c r="W51" t="n">
-        <v>0</v>
+        <v>0.07363576472058653</v>
       </c>
       <c r="X51" t="n">
         <v>0</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.8965018758115698</v>
+        <v>0.896501875811571</v>
       </c>
       <c r="Z51" t="n">
         <v>0</v>
@@ -5044,22 +5044,22 @@
         <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>1949.46822</v>
       </c>
       <c r="M52" t="n">
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>675.4885039298581</v>
+        <v>675.4885039298579</v>
       </c>
       <c r="O52" t="n">
-        <v>4101.92</v>
+        <v>2152.45178</v>
       </c>
       <c r="P52" t="n">
-        <v>3426.431496070143</v>
+        <v>1476.963276070142</v>
       </c>
       <c r="Q52" t="n">
-        <v>3426.431496070143</v>
+        <v>1476.963276070142</v>
       </c>
       <c r="R52" t="n">
         <v>157.7661538461539</v>
@@ -5068,13 +5068,13 @@
         <v>0</v>
       </c>
       <c r="T52" t="n">
-        <v>131.7858267719286</v>
+        <v>56.80627984885163</v>
       </c>
       <c r="U52" t="n">
-        <v>131.7858267719286</v>
+        <v>56.80627984885163</v>
       </c>
       <c r="W52" t="n">
-        <v>0</v>
+        <v>0.07189097249291128</v>
       </c>
       <c r="X52" t="n">
         <v>0</v>
@@ -5118,10 +5118,10 @@
         <v>28509.2</v>
       </c>
       <c r="H53" t="n">
-        <v>4031.570000000001</v>
+        <v>4031.57</v>
       </c>
       <c r="I53" t="n">
-        <v>3625.570000000001</v>
+        <v>3625.57</v>
       </c>
       <c r="J53" t="n">
         <v>406</v>
@@ -5130,22 +5130,22 @@
         <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>1637.047818</v>
       </c>
       <c r="M53" t="n">
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>382.9961481774641</v>
+        <v>382.996148177464</v>
       </c>
       <c r="O53" t="n">
-        <v>4031.570000000001</v>
+        <v>2394.522182</v>
       </c>
       <c r="P53" t="n">
-        <v>3648.573851822537</v>
+        <v>2011.526033822535</v>
       </c>
       <c r="Q53" t="n">
-        <v>3648.573851822537</v>
+        <v>2011.526033822535</v>
       </c>
       <c r="R53" t="n">
         <v>212.1878947368421</v>
@@ -5154,13 +5154,13 @@
         <v>0</v>
       </c>
       <c r="T53" t="n">
-        <v>192.0302027275019</v>
+        <v>105.8697912538177</v>
       </c>
       <c r="U53" t="n">
-        <v>192.0302027275019</v>
+        <v>105.8697912538177</v>
       </c>
       <c r="W53" t="n">
-        <v>0</v>
+        <v>0.05742173817574678</v>
       </c>
       <c r="X53" t="n">
         <v>0</v>
@@ -5216,22 +5216,22 @@
         <v>0</v>
       </c>
       <c r="L54" t="n">
-        <v>0</v>
+        <v>1143.609642</v>
       </c>
       <c r="M54" t="n">
         <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>581.8142910404171</v>
+        <v>581.8142910404172</v>
       </c>
       <c r="O54" t="n">
-        <v>1491.25</v>
+        <v>347.6403580000001</v>
       </c>
       <c r="P54" t="n">
-        <v>909.4357089595828</v>
+        <v>-234.1739330404169</v>
       </c>
       <c r="Q54" t="n">
-        <v>909.4357089595828</v>
+        <v>-234.1739330404169</v>
       </c>
       <c r="R54" t="n">
         <v>106.5178571428571</v>
@@ -5240,13 +5240,13 @@
         <v>0</v>
       </c>
       <c r="T54" t="n">
-        <v>64.95969349711307</v>
+        <v>-16.72670950288692</v>
       </c>
       <c r="U54" t="n">
-        <v>64.95969349711307</v>
+        <v>-16.72670950288692</v>
       </c>
       <c r="W54" t="n">
-        <v>0</v>
+        <v>0.04964531603257566</v>
       </c>
       <c r="X54" t="n">
         <v>0</v>
@@ -5302,22 +5302,22 @@
         <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>2752.418592</v>
       </c>
       <c r="M55" t="n">
         <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>478.5209032763711</v>
+        <v>478.520903276371</v>
       </c>
       <c r="O55" t="n">
-        <v>8169.969999999999</v>
+        <v>5417.551408</v>
       </c>
       <c r="P55" t="n">
-        <v>7691.44909672363</v>
+        <v>4939.030504723629</v>
       </c>
       <c r="Q55" t="n">
-        <v>7691.44909672363</v>
+        <v>4939.030504723629</v>
       </c>
       <c r="R55" t="n">
         <v>281.7231034482758</v>
@@ -5326,13 +5326,13 @@
         <v>0</v>
       </c>
       <c r="T55" t="n">
-        <v>265.2223826456424</v>
+        <v>170.3113967146079</v>
       </c>
       <c r="U55" t="n">
-        <v>265.2223826456424</v>
+        <v>170.3113967146079</v>
       </c>
       <c r="W55" t="n">
-        <v>0</v>
+        <v>0.0715562944884035</v>
       </c>
       <c r="X55" t="n">
         <v>0</v>
@@ -5388,7 +5388,7 @@
         <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>0</v>
+        <v>101.404926</v>
       </c>
       <c r="M56" t="n">
         <v>0</v>
@@ -5397,13 +5397,13 @@
         <v>82.90735174146681</v>
       </c>
       <c r="O56" t="n">
-        <v>0</v>
+        <v>-101.404926</v>
       </c>
       <c r="P56" t="n">
-        <v>-82.90735174146681</v>
+        <v>-184.3122777414668</v>
       </c>
       <c r="Q56" t="n">
-        <v>-82.90735174146681</v>
+        <v>-184.3122777414668</v>
       </c>
       <c r="R56" t="n">
         <v>0</v>
@@ -5412,13 +5412,13 @@
         <v>0</v>
       </c>
       <c r="T56" t="n">
-        <v>-27.63578391382227</v>
+        <v>-61.43742591382227</v>
       </c>
       <c r="U56" t="n">
-        <v>-27.63578391382227</v>
+        <v>-61.43742591382227</v>
       </c>
       <c r="W56" t="n">
-        <v>0</v>
+        <v>0.01794767921586257</v>
       </c>
       <c r="X56" t="n">
         <v>0</v>
@@ -5459,13 +5459,13 @@
         <v>468</v>
       </c>
       <c r="G57" t="n">
-        <v>984840.8499999995</v>
+        <v>984840.8499999999</v>
       </c>
       <c r="H57" t="n">
-        <v>179164.1799999998</v>
+        <v>179164.18</v>
       </c>
       <c r="I57" t="n">
-        <v>153180.1499999999</v>
+        <v>153180.15</v>
       </c>
       <c r="J57" t="n">
         <v>25984.03</v>
@@ -5474,43 +5474,43 @@
         <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>66231.08629200001</v>
       </c>
       <c r="M57" t="n">
         <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>15313.18360281027</v>
+        <v>15313.18360281029</v>
       </c>
       <c r="O57" t="n">
-        <v>179164.1799999998</v>
+        <v>112933.093708</v>
       </c>
       <c r="P57" t="n">
-        <v>163850.9963971897</v>
+        <v>97619.91010518972</v>
       </c>
       <c r="Q57" t="n">
-        <v>163850.9963971897</v>
+        <v>97619.91010518972</v>
       </c>
       <c r="R57" t="n">
-        <v>192.6496559139783</v>
+        <v>192.6496559139785</v>
       </c>
       <c r="S57" t="n">
         <v>0</v>
       </c>
       <c r="T57" t="n">
-        <v>176.1838670937523</v>
+        <v>104.9676452743975</v>
       </c>
       <c r="U57" t="n">
-        <v>176.1838670937523</v>
+        <v>104.9676452743975</v>
       </c>
       <c r="W57" t="n">
-        <v>0</v>
+        <v>0.06725054742804384</v>
       </c>
       <c r="X57" t="n">
         <v>0</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.7887606713308046</v>
+        <v>0.7887606713308044</v>
       </c>
       <c r="Z57" t="n">
         <v>0</v>
@@ -5545,13 +5545,13 @@
         <v>118</v>
       </c>
       <c r="G58" t="n">
-        <v>305796.9200000001</v>
+        <v>305796.92</v>
       </c>
       <c r="H58" t="n">
-        <v>23186.07000000001</v>
+        <v>23186.07</v>
       </c>
       <c r="I58" t="n">
-        <v>22200.07000000001</v>
+        <v>22200.07</v>
       </c>
       <c r="J58" t="n">
         <v>986</v>
@@ -5560,43 +5560,43 @@
         <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>0</v>
+        <v>17702.72973</v>
       </c>
       <c r="M58" t="n">
         <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>5317.552223742668</v>
+        <v>5317.552223742665</v>
       </c>
       <c r="O58" t="n">
-        <v>23186.07000000001</v>
+        <v>5483.340270000002</v>
       </c>
       <c r="P58" t="n">
-        <v>17868.51777625734</v>
+        <v>165.7880462573341</v>
       </c>
       <c r="Q58" t="n">
-        <v>17868.51777625734</v>
+        <v>165.7880462573341</v>
       </c>
       <c r="R58" t="n">
-        <v>95.81020661157029</v>
+        <v>95.81020661157025</v>
       </c>
       <c r="S58" t="n">
         <v>0</v>
       </c>
       <c r="T58" t="n">
-        <v>73.83685031511295</v>
+        <v>0.6850745713112981</v>
       </c>
       <c r="U58" t="n">
-        <v>73.83685031511295</v>
+        <v>0.6850745713112981</v>
       </c>
       <c r="W58" t="n">
-        <v>0</v>
+        <v>0.0578904775430701</v>
       </c>
       <c r="X58" t="n">
         <v>0</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.9863533942722509</v>
+        <v>0.9863533942722511</v>
       </c>
       <c r="Z58" t="n">
         <v>0</v>
@@ -5631,7 +5631,7 @@
         <v>473</v>
       </c>
       <c r="G59" t="n">
-        <v>1369692.359999999</v>
+        <v>1369692.36</v>
       </c>
       <c r="H59" t="n">
         <v>235763.77</v>
@@ -5646,22 +5646,22 @@
         <v>0</v>
       </c>
       <c r="L59" t="n">
-        <v>0</v>
+        <v>102737.973114</v>
       </c>
       <c r="M59" t="n">
         <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>20251.6591722534</v>
+        <v>20251.65917225338</v>
       </c>
       <c r="O59" t="n">
-        <v>235763.77</v>
+        <v>133025.796886</v>
       </c>
       <c r="P59" t="n">
-        <v>215512.1108277462</v>
+        <v>112774.1377137466</v>
       </c>
       <c r="Q59" t="n">
-        <v>215512.1108277462</v>
+        <v>112774.1377137466</v>
       </c>
       <c r="R59" t="n">
         <v>232.5086489151874</v>
@@ -5670,19 +5670,19 @@
         <v>0</v>
       </c>
       <c r="T59" t="n">
-        <v>212.5365984494538</v>
+        <v>111.2170983370282</v>
       </c>
       <c r="U59" t="n">
-        <v>212.5365984494538</v>
+        <v>111.2170983370282</v>
       </c>
       <c r="W59" t="n">
-        <v>0</v>
+        <v>0.07500806466789375</v>
       </c>
       <c r="X59" t="n">
         <v>0</v>
       </c>
       <c r="Y59" t="n">
-        <v>0.8851435150006973</v>
+        <v>0.8851435150006971</v>
       </c>
       <c r="Z59" t="n">
         <v>0</v>
@@ -5732,7 +5732,7 @@
         <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>0</v>
+        <v>1137.221316</v>
       </c>
       <c r="M60" t="n">
         <v>0</v>
@@ -5741,13 +5741,13 @@
         <v>498.4291839198966</v>
       </c>
       <c r="O60" t="n">
-        <v>3306.7</v>
+        <v>2169.478684</v>
       </c>
       <c r="P60" t="n">
-        <v>2808.270816080103</v>
+        <v>1671.049500080103</v>
       </c>
       <c r="Q60" t="n">
-        <v>2808.270816080103</v>
+        <v>1671.049500080103</v>
       </c>
       <c r="R60" t="n">
         <v>127.1807692307692</v>
@@ -5756,13 +5756,13 @@
         <v>0</v>
       </c>
       <c r="T60" t="n">
-        <v>108.0104160030809</v>
+        <v>64.27113461846551</v>
       </c>
       <c r="U60" t="n">
-        <v>108.0104160030809</v>
+        <v>64.27113461846551</v>
       </c>
       <c r="W60" t="n">
-        <v>0</v>
+        <v>0.0511557655767556</v>
       </c>
       <c r="X60" t="n">
         <v>0</v>
@@ -5818,22 +5818,22 @@
         <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>1340.554824</v>
       </c>
       <c r="M61" t="n">
         <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>434.0340749373707</v>
+        <v>434.0340749373706</v>
       </c>
       <c r="O61" t="n">
-        <v>4005.28</v>
+        <v>2664.725176</v>
       </c>
       <c r="P61" t="n">
-        <v>3571.245925062629</v>
+        <v>2230.69110106263</v>
       </c>
       <c r="Q61" t="n">
-        <v>3571.245925062629</v>
+        <v>2230.69110106263</v>
       </c>
       <c r="R61" t="n">
         <v>200.264</v>
@@ -5842,19 +5842,19 @@
         <v>0</v>
       </c>
       <c r="T61" t="n">
-        <v>178.5622962531315</v>
+        <v>111.5345550531315</v>
       </c>
       <c r="U61" t="n">
-        <v>178.5622962531315</v>
+        <v>111.5345550531315</v>
       </c>
       <c r="W61" t="n">
-        <v>0</v>
+        <v>0.05677478311691612</v>
       </c>
       <c r="X61" t="n">
         <v>0</v>
       </c>
       <c r="Y61" t="n">
-        <v>0.9467880466546389</v>
+        <v>0.9467880466546388</v>
       </c>
       <c r="Z61" t="n">
         <v>0</v>
@@ -5895,7 +5895,7 @@
         <v>1055.23</v>
       </c>
       <c r="I62" t="n">
-        <v>997.23</v>
+        <v>997.2299999999999</v>
       </c>
       <c r="J62" t="n">
         <v>58</v>
@@ -5904,7 +5904,7 @@
         <v>0</v>
       </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>1014.930126</v>
       </c>
       <c r="M62" t="n">
         <v>0</v>
@@ -5913,13 +5913,13 @@
         <v>526.3898555535848</v>
       </c>
       <c r="O62" t="n">
-        <v>1055.23</v>
+        <v>40.29987400000005</v>
       </c>
       <c r="P62" t="n">
-        <v>528.8401444464154</v>
+        <v>-486.0899815535848</v>
       </c>
       <c r="Q62" t="n">
-        <v>528.8401444464154</v>
+        <v>-486.0899815535848</v>
       </c>
       <c r="R62" t="n">
         <v>62.07235294117647</v>
@@ -5928,19 +5928,19 @@
         <v>0</v>
       </c>
       <c r="T62" t="n">
-        <v>31.10824379096561</v>
+        <v>-28.59352832668146</v>
       </c>
       <c r="U62" t="n">
-        <v>31.10824379096561</v>
+        <v>-28.59352832668146</v>
       </c>
       <c r="W62" t="n">
-        <v>0</v>
+        <v>0.04064326198448081</v>
       </c>
       <c r="X62" t="n">
         <v>0</v>
       </c>
       <c r="Y62" t="n">
-        <v>0.9804818820687603</v>
+        <v>0.9804818820687604</v>
       </c>
       <c r="Z62" t="n">
         <v>0</v>
@@ -5990,43 +5990,43 @@
         <v>0</v>
       </c>
       <c r="L63" t="n">
-        <v>0</v>
+        <v>4324.984902</v>
       </c>
       <c r="M63" t="n">
         <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>620.7298630281059</v>
+        <v>620.7298630281058</v>
       </c>
       <c r="O63" t="n">
-        <v>12359.58</v>
+        <v>8034.595098000001</v>
       </c>
       <c r="P63" t="n">
-        <v>11738.8501369719</v>
+        <v>7413.865234971897</v>
       </c>
       <c r="Q63" t="n">
-        <v>11738.8501369719</v>
+        <v>7413.865234971897</v>
       </c>
       <c r="R63" t="n">
-        <v>494.3832000000002</v>
+        <v>494.3832</v>
       </c>
       <c r="S63" t="n">
         <v>0</v>
       </c>
       <c r="T63" t="n">
-        <v>469.5540054788759</v>
+        <v>296.5546093988759</v>
       </c>
       <c r="U63" t="n">
-        <v>469.5540054788759</v>
+        <v>296.5546093988759</v>
       </c>
       <c r="W63" t="n">
-        <v>0</v>
+        <v>0.07157916438274547</v>
       </c>
       <c r="X63" t="n">
         <v>0</v>
       </c>
       <c r="Y63" t="n">
-        <v>0.8518311089926913</v>
+        <v>0.8518311089926914</v>
       </c>
       <c r="Z63" t="n">
         <v>0</v>
@@ -6061,13 +6061,13 @@
         <v>432</v>
       </c>
       <c r="G64" t="n">
-        <v>1048885.390000001</v>
+        <v>1048885.39</v>
       </c>
       <c r="H64" t="n">
-        <v>204297.6800000002</v>
+        <v>204297.68</v>
       </c>
       <c r="I64" t="n">
-        <v>180501.4300000001</v>
+        <v>180501.43</v>
       </c>
       <c r="J64" t="n">
         <v>23796.25</v>
@@ -6076,43 +6076,43 @@
         <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>0</v>
+        <v>80358.40638</v>
       </c>
       <c r="M64" t="n">
         <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>21108.87370613358</v>
+        <v>21108.87370613353</v>
       </c>
       <c r="O64" t="n">
-        <v>204297.6800000002</v>
+        <v>123939.27362</v>
       </c>
       <c r="P64" t="n">
-        <v>183188.8062938667</v>
+        <v>102830.3999138665</v>
       </c>
       <c r="Q64" t="n">
-        <v>183188.8062938667</v>
+        <v>102830.3999138665</v>
       </c>
       <c r="R64" t="n">
-        <v>231.105972850679</v>
+        <v>231.1059728506787</v>
       </c>
       <c r="S64" t="n">
         <v>0</v>
       </c>
       <c r="T64" t="n">
-        <v>207.2271564410257</v>
+        <v>116.3239818030164</v>
       </c>
       <c r="U64" t="n">
-        <v>207.2271564410257</v>
+        <v>116.3239818030164</v>
       </c>
       <c r="W64" t="n">
-        <v>0</v>
+        <v>0.07661314300507131</v>
       </c>
       <c r="X64" t="n">
         <v>0</v>
       </c>
       <c r="Y64" t="n">
-        <v>0.7871100864509136</v>
+        <v>0.7871100864509133</v>
       </c>
       <c r="Z64" t="n">
         <v>0</v>
@@ -6147,7 +6147,7 @@
         <v>124</v>
       </c>
       <c r="G65" t="n">
-        <v>283350.1999999999</v>
+        <v>283350.2</v>
       </c>
       <c r="H65" t="n">
         <v>21457.09</v>
@@ -6162,22 +6162,22 @@
         <v>0</v>
       </c>
       <c r="L65" t="n">
-        <v>0</v>
+        <v>15014.69046</v>
       </c>
       <c r="M65" t="n">
         <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>7502.837456245063</v>
+        <v>7502.837456245059</v>
       </c>
       <c r="O65" t="n">
-        <v>21457.09</v>
+        <v>6442.39954</v>
       </c>
       <c r="P65" t="n">
-        <v>13954.25254375494</v>
+        <v>-1060.437916245059</v>
       </c>
       <c r="Q65" t="n">
-        <v>13954.25254375494</v>
+        <v>-1060.437916245059</v>
       </c>
       <c r="R65" t="n">
         <v>78.88636029411765</v>
@@ -6186,13 +6186,13 @@
         <v>0</v>
       </c>
       <c r="T65" t="n">
-        <v>51.30239905792259</v>
+        <v>-3.89866880972448</v>
       </c>
       <c r="U65" t="n">
-        <v>51.30239905792259</v>
+        <v>-3.89866880972448</v>
       </c>
       <c r="W65" t="n">
-        <v>0</v>
+        <v>0.05298987069710909</v>
       </c>
       <c r="X65" t="n">
         <v>0</v>
@@ -6233,13 +6233,13 @@
         <v>443</v>
       </c>
       <c r="G66" t="n">
-        <v>1428238.289999999</v>
+        <v>1428238.29</v>
       </c>
       <c r="H66" t="n">
-        <v>208310.8199999998</v>
+        <v>208310.82</v>
       </c>
       <c r="I66" t="n">
-        <v>196370.5299999998</v>
+        <v>196370.53</v>
       </c>
       <c r="J66" t="n">
         <v>11940.29</v>
@@ -6248,43 +6248,43 @@
         <v>0</v>
       </c>
       <c r="L66" t="n">
-        <v>0</v>
+        <v>97726.05234000001</v>
       </c>
       <c r="M66" t="n">
         <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>27250.63387327459</v>
+        <v>27250.63387327453</v>
       </c>
       <c r="O66" t="n">
-        <v>208310.8199999998</v>
+        <v>110584.76766</v>
       </c>
       <c r="P66" t="n">
-        <v>181060.1861267255</v>
+        <v>83334.13378672548</v>
       </c>
       <c r="Q66" t="n">
-        <v>181060.1861267255</v>
+        <v>83334.13378672548</v>
       </c>
       <c r="R66" t="n">
-        <v>198.2024928639389</v>
+        <v>198.2024928639391</v>
       </c>
       <c r="S66" t="n">
         <v>0</v>
       </c>
       <c r="T66" t="n">
-        <v>172.2742018332307</v>
+        <v>79.29032710440103</v>
       </c>
       <c r="U66" t="n">
-        <v>172.2742018332307</v>
+        <v>79.29032710440103</v>
       </c>
       <c r="W66" t="n">
-        <v>0</v>
+        <v>0.06842419295452443</v>
       </c>
       <c r="X66" t="n">
         <v>0</v>
       </c>
       <c r="Y66" t="n">
-        <v>0.8355377518971286</v>
+        <v>0.8355377518971291</v>
       </c>
       <c r="Z66" t="n">
         <v>0</v>
@@ -6322,7 +6322,7 @@
         <v>29472.05</v>
       </c>
       <c r="H67" t="n">
-        <v>4151.239999999999</v>
+        <v>4151.24</v>
       </c>
       <c r="I67" t="n">
         <v>3803.24</v>
@@ -6334,7 +6334,7 @@
         <v>0</v>
       </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>2041.887708</v>
       </c>
       <c r="M67" t="n">
         <v>0</v>
@@ -6343,34 +6343,34 @@
         <v>826.2284876097287</v>
       </c>
       <c r="O67" t="n">
-        <v>4151.239999999999</v>
+        <v>2109.352292</v>
       </c>
       <c r="P67" t="n">
-        <v>3325.011512390271</v>
+        <v>1283.123804390271</v>
       </c>
       <c r="Q67" t="n">
-        <v>3325.011512390271</v>
+        <v>1283.123804390271</v>
       </c>
       <c r="R67" t="n">
-        <v>166.0495999999999</v>
+        <v>166.0496</v>
       </c>
       <c r="S67" t="n">
         <v>0</v>
       </c>
       <c r="T67" t="n">
-        <v>133.0004604956108</v>
+        <v>51.32495217561085</v>
       </c>
       <c r="U67" t="n">
-        <v>133.0004604956108</v>
+        <v>51.32495217561085</v>
       </c>
       <c r="W67" t="n">
-        <v>0</v>
+        <v>0.06928217439913409</v>
       </c>
       <c r="X67" t="n">
         <v>0</v>
       </c>
       <c r="Y67" t="n">
-        <v>0.8083536774672953</v>
+        <v>0.8083536774672954</v>
       </c>
       <c r="Z67" t="n">
         <v>0</v>
@@ -6420,7 +6420,7 @@
         <v>0</v>
       </c>
       <c r="L68" t="n">
-        <v>0</v>
+        <v>1146.246696</v>
       </c>
       <c r="M68" t="n">
         <v>0</v>
@@ -6429,13 +6429,13 @@
         <v>178.8983157786784</v>
       </c>
       <c r="O68" t="n">
-        <v>4629.2</v>
+        <v>3482.953304</v>
       </c>
       <c r="P68" t="n">
-        <v>4450.301684221321</v>
+        <v>3304.054988221322</v>
       </c>
       <c r="Q68" t="n">
-        <v>4450.301684221321</v>
+        <v>3304.054988221322</v>
       </c>
       <c r="R68" t="n">
         <v>385.7666666666667</v>
@@ -6444,19 +6444,19 @@
         <v>0</v>
       </c>
       <c r="T68" t="n">
-        <v>370.8584736851101</v>
+        <v>275.3379156851101</v>
       </c>
       <c r="U68" t="n">
-        <v>370.8584736851101</v>
+        <v>275.3379156851101</v>
       </c>
       <c r="W68" t="n">
-        <v>0</v>
+        <v>0.05882369191640827</v>
       </c>
       <c r="X68" t="n">
         <v>0</v>
       </c>
       <c r="Y68" t="n">
-        <v>0.9199738891335071</v>
+        <v>0.9199738891335073</v>
       </c>
       <c r="Z68" t="n">
         <v>0</v>
@@ -6506,7 +6506,7 @@
         <v>0</v>
       </c>
       <c r="L69" t="n">
-        <v>0</v>
+        <v>1223.12106</v>
       </c>
       <c r="M69" t="n">
         <v>0</v>
@@ -6515,13 +6515,13 @@
         <v>269.8602357498152</v>
       </c>
       <c r="O69" t="n">
-        <v>1778.39</v>
+        <v>555.2689400000002</v>
       </c>
       <c r="P69" t="n">
-        <v>1508.529764250185</v>
+        <v>285.408704250185</v>
       </c>
       <c r="Q69" t="n">
-        <v>1508.529764250185</v>
+        <v>285.408704250185</v>
       </c>
       <c r="R69" t="n">
         <v>77.3213043478261</v>
@@ -6530,19 +6530,19 @@
         <v>0</v>
       </c>
       <c r="T69" t="n">
-        <v>65.58825061957326</v>
+        <v>12.40907409783413</v>
       </c>
       <c r="U69" t="n">
-        <v>65.58825061957326</v>
+        <v>12.40907409783413</v>
       </c>
       <c r="W69" t="n">
-        <v>0</v>
+        <v>0.0423191600668459</v>
       </c>
       <c r="X69" t="n">
         <v>0</v>
       </c>
       <c r="Y69" t="n">
-        <v>0.9837611539566056</v>
+        <v>0.9837611539566057</v>
       </c>
       <c r="Z69" t="n">
         <v>0</v>
@@ -6580,10 +6580,10 @@
         <v>50680.65</v>
       </c>
       <c r="H70" t="n">
-        <v>6742.040000000001</v>
+        <v>6742.04</v>
       </c>
       <c r="I70" t="n">
-        <v>6742.040000000001</v>
+        <v>6742.04</v>
       </c>
       <c r="J70" t="n">
         <v>0</v>
@@ -6592,7 +6592,7 @@
         <v>0</v>
       </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>3564.191988</v>
       </c>
       <c r="M70" t="n">
         <v>0</v>
@@ -6601,13 +6601,13 @@
         <v>318.8034292010421</v>
       </c>
       <c r="O70" t="n">
-        <v>6742.040000000001</v>
+        <v>3177.848012</v>
       </c>
       <c r="P70" t="n">
-        <v>6423.236570798958</v>
+        <v>2859.044582798958</v>
       </c>
       <c r="Q70" t="n">
-        <v>6423.236570798958</v>
+        <v>2859.044582798958</v>
       </c>
       <c r="R70" t="n">
         <v>249.7051851851852</v>
@@ -6616,13 +6616,13 @@
         <v>0</v>
       </c>
       <c r="T70" t="n">
-        <v>237.8976507703318</v>
+        <v>105.8905401036651</v>
       </c>
       <c r="U70" t="n">
-        <v>237.8976507703318</v>
+        <v>105.8905401036651</v>
       </c>
       <c r="W70" t="n">
-        <v>0</v>
+        <v>0.07032648531540144</v>
       </c>
       <c r="X70" t="n">
         <v>0</v>
@@ -6678,7 +6678,7 @@
         <v>0</v>
       </c>
       <c r="L71" t="n">
-        <v>0</v>
+        <v>19.825596</v>
       </c>
       <c r="M71" t="n">
         <v>0</v>
@@ -6687,13 +6687,13 @@
         <v>2.472832451523508</v>
       </c>
       <c r="O71" t="n">
-        <v>0</v>
+        <v>-19.825596</v>
       </c>
       <c r="P71" t="n">
-        <v>-2.472832451523508</v>
+        <v>-22.29842845152351</v>
       </c>
       <c r="Q71" t="n">
-        <v>-2.472832451523508</v>
+        <v>-22.29842845152351</v>
       </c>
       <c r="R71" t="n">
         <v>0</v>
@@ -6702,13 +6702,13 @@
         <v>0</v>
       </c>
       <c r="T71" t="n">
-        <v>-2.472832451523508</v>
+        <v>-22.29842845152351</v>
       </c>
       <c r="U71" t="n">
-        <v>-2.472832451523508</v>
+        <v>-22.29842845152351</v>
       </c>
       <c r="W71" t="n">
-        <v>0</v>
+        <v>0.0252</v>
       </c>
       <c r="X71" t="n">
         <v>0</v>
@@ -6749,13 +6749,13 @@
         <v>355</v>
       </c>
       <c r="G72" t="n">
-        <v>881835.8799999998</v>
+        <v>881835.8799999999</v>
       </c>
       <c r="H72" t="n">
-        <v>169018.6199999998</v>
+        <v>169018.62</v>
       </c>
       <c r="I72" t="n">
-        <v>152539.1699999998</v>
+        <v>152539.17</v>
       </c>
       <c r="J72" t="n">
         <v>16479.45</v>
@@ -6764,43 +6764,43 @@
         <v>0</v>
       </c>
       <c r="L72" t="n">
-        <v>0</v>
+        <v>62313.50084400001</v>
       </c>
       <c r="M72" t="n">
         <v>0</v>
       </c>
       <c r="N72" t="n">
-        <v>13903.03192752435</v>
+        <v>13903.03192752432</v>
       </c>
       <c r="O72" t="n">
-        <v>169018.6199999998</v>
+        <v>106705.119156</v>
       </c>
       <c r="P72" t="n">
-        <v>155115.5880724761</v>
+        <v>92802.08722847566</v>
       </c>
       <c r="Q72" t="n">
-        <v>155115.5880724761</v>
+        <v>92802.08722847566</v>
       </c>
       <c r="R72" t="n">
-        <v>209.9610186335401</v>
+        <v>209.9610186335404</v>
       </c>
       <c r="S72" t="n">
         <v>0</v>
       </c>
       <c r="T72" t="n">
-        <v>192.6901715186038</v>
+        <v>115.2820959359946</v>
       </c>
       <c r="U72" t="n">
-        <v>192.6901715186038</v>
+        <v>115.2820959359946</v>
       </c>
       <c r="W72" t="n">
-        <v>0</v>
+        <v>0.07066337655029416</v>
       </c>
       <c r="X72" t="n">
         <v>0</v>
       </c>
       <c r="Y72" t="n">
-        <v>0.7801354034267689</v>
+        <v>0.7801354034267691</v>
       </c>
       <c r="Z72" t="n">
         <v>0</v>
@@ -6835,13 +6835,13 @@
         <v>111</v>
       </c>
       <c r="G73" t="n">
-        <v>356566.21</v>
+        <v>356566.2100000001</v>
       </c>
       <c r="H73" t="n">
-        <v>17991.69000000001</v>
+        <v>17991.69</v>
       </c>
       <c r="I73" t="n">
-        <v>17353.69000000001</v>
+        <v>17353.69</v>
       </c>
       <c r="J73" t="n">
         <v>638</v>
@@ -6850,37 +6850,37 @@
         <v>0</v>
       </c>
       <c r="L73" t="n">
-        <v>0</v>
+        <v>17451.764568</v>
       </c>
       <c r="M73" t="n">
         <v>0</v>
       </c>
       <c r="N73" t="n">
-        <v>5866.682895565143</v>
+        <v>5866.682895565148</v>
       </c>
       <c r="O73" t="n">
-        <v>17991.69000000001</v>
+        <v>539.9254320000002</v>
       </c>
       <c r="P73" t="n">
-        <v>12125.00710443485</v>
+        <v>-5326.757463565147</v>
       </c>
       <c r="Q73" t="n">
-        <v>12125.00710443485</v>
+        <v>-5326.757463565147</v>
       </c>
       <c r="R73" t="n">
-        <v>72.25578313253015</v>
+        <v>72.25578313253013</v>
       </c>
       <c r="S73" t="n">
         <v>0</v>
       </c>
       <c r="T73" t="n">
-        <v>48.69480764833271</v>
+        <v>-21.39260025528172</v>
       </c>
       <c r="U73" t="n">
-        <v>48.69480764833271</v>
+        <v>-21.39260025528172</v>
       </c>
       <c r="W73" t="n">
-        <v>0</v>
+        <v>0.04894396630572481</v>
       </c>
       <c r="X73" t="n">
         <v>0</v>
@@ -6921,7 +6921,7 @@
         <v>408</v>
       </c>
       <c r="G74" t="n">
-        <v>1233665.239999999</v>
+        <v>1233665.24</v>
       </c>
       <c r="H74" t="n">
         <v>172230.11</v>
@@ -6936,43 +6936,43 @@
         <v>0</v>
       </c>
       <c r="L74" t="n">
-        <v>0</v>
+        <v>85349.97059399997</v>
       </c>
       <c r="M74" t="n">
         <v>0</v>
       </c>
       <c r="N74" t="n">
-        <v>17278.0813748047</v>
+        <v>17278.08137480465</v>
       </c>
       <c r="O74" t="n">
-        <v>172230.11</v>
+        <v>86880.13940600002</v>
       </c>
       <c r="P74" t="n">
-        <v>154952.0286251958</v>
+        <v>69602.05803119534</v>
       </c>
       <c r="Q74" t="n">
-        <v>154952.0286251958</v>
+        <v>69602.05803119534</v>
       </c>
       <c r="R74" t="n">
-        <v>185.1936666666666</v>
+        <v>185.1936666666667</v>
       </c>
       <c r="S74" t="n">
         <v>0</v>
       </c>
       <c r="T74" t="n">
-        <v>166.6150845432213</v>
+        <v>74.84092261418854</v>
       </c>
       <c r="U74" t="n">
-        <v>166.6150845432213</v>
+        <v>74.84092261418854</v>
       </c>
       <c r="W74" t="n">
-        <v>0</v>
+        <v>0.06918406049440121</v>
       </c>
       <c r="X74" t="n">
         <v>0</v>
       </c>
       <c r="Y74" t="n">
-        <v>0.8462878308867648</v>
+        <v>0.8462878308867647</v>
       </c>
       <c r="Z74" t="n">
         <v>0</v>
@@ -7010,10 +7010,10 @@
         <v>44050.45</v>
       </c>
       <c r="H75" t="n">
-        <v>7759.64</v>
+        <v>7759.639999999999</v>
       </c>
       <c r="I75" t="n">
-        <v>7121.64</v>
+        <v>7121.639999999999</v>
       </c>
       <c r="J75" t="n">
         <v>638</v>
@@ -7022,22 +7022,22 @@
         <v>0</v>
       </c>
       <c r="L75" t="n">
-        <v>0</v>
+        <v>3620.78514</v>
       </c>
       <c r="M75" t="n">
         <v>0</v>
       </c>
       <c r="N75" t="n">
-        <v>531.1228900467324</v>
+        <v>531.1228900467326</v>
       </c>
       <c r="O75" t="n">
-        <v>7759.64</v>
+        <v>4138.85486</v>
       </c>
       <c r="P75" t="n">
-        <v>7228.517109953269</v>
+        <v>3607.731969953267</v>
       </c>
       <c r="Q75" t="n">
-        <v>7228.517109953269</v>
+        <v>3607.731969953267</v>
       </c>
       <c r="R75" t="n">
         <v>193.991</v>
@@ -7046,19 +7046,19 @@
         <v>0</v>
       </c>
       <c r="T75" t="n">
-        <v>180.7129277488317</v>
+        <v>90.19329924883166</v>
       </c>
       <c r="U75" t="n">
-        <v>180.7129277488317</v>
+        <v>90.19329924883166</v>
       </c>
       <c r="W75" t="n">
-        <v>0</v>
+        <v>0.08219632580370916</v>
       </c>
       <c r="X75" t="n">
         <v>0</v>
       </c>
       <c r="Y75" t="n">
-        <v>0.878788071404492</v>
+        <v>0.8787880714044919</v>
       </c>
       <c r="Z75" t="n">
         <v>0</v>
@@ -7108,22 +7108,22 @@
         <v>0</v>
       </c>
       <c r="L76" t="n">
-        <v>0</v>
+        <v>860.8491359999999</v>
       </c>
       <c r="M76" t="n">
         <v>0</v>
       </c>
       <c r="N76" t="n">
-        <v>269.0661050181851</v>
+        <v>269.0661050181852</v>
       </c>
       <c r="O76" t="n">
-        <v>2706.73</v>
+        <v>1845.880864</v>
       </c>
       <c r="P76" t="n">
-        <v>2437.663894981815</v>
+        <v>1576.814758981815</v>
       </c>
       <c r="Q76" t="n">
-        <v>2437.663894981815</v>
+        <v>1576.814758981815</v>
       </c>
       <c r="R76" t="n">
         <v>193.3378571428571</v>
@@ -7132,13 +7132,13 @@
         <v>0</v>
       </c>
       <c r="T76" t="n">
-        <v>174.1188496415582</v>
+        <v>112.6296256415582</v>
       </c>
       <c r="U76" t="n">
-        <v>174.1188496415582</v>
+        <v>112.6296256415582</v>
       </c>
       <c r="W76" t="n">
-        <v>0</v>
+        <v>0.05871402187872781</v>
       </c>
       <c r="X76" t="n">
         <v>0</v>
@@ -7194,22 +7194,22 @@
         <v>0</v>
       </c>
       <c r="L77" t="n">
-        <v>0</v>
+        <v>347.590152</v>
       </c>
       <c r="M77" t="n">
         <v>0</v>
       </c>
       <c r="N77" t="n">
-        <v>85.74468947895774</v>
+        <v>85.74468947895775</v>
       </c>
       <c r="O77" t="n">
-        <v>330.5</v>
+        <v>-17.09015200000002</v>
       </c>
       <c r="P77" t="n">
-        <v>244.7553105210422</v>
+        <v>-102.8348414789577</v>
       </c>
       <c r="Q77" t="n">
-        <v>244.7553105210422</v>
+        <v>-102.8348414789577</v>
       </c>
       <c r="R77" t="n">
         <v>23.60714285714286</v>
@@ -7218,13 +7218,13 @@
         <v>0</v>
       </c>
       <c r="T77" t="n">
-        <v>17.48252218007444</v>
+        <v>-7.345345819925553</v>
       </c>
       <c r="U77" t="n">
-        <v>17.48252218007444</v>
+        <v>-7.345345819925553</v>
       </c>
       <c r="W77" t="n">
-        <v>0</v>
+        <v>0.02625803038040473</v>
       </c>
       <c r="X77" t="n">
         <v>0</v>
@@ -7268,10 +7268,10 @@
         <v>26141.44</v>
       </c>
       <c r="H78" t="n">
-        <v>6672.14</v>
+        <v>6672.139999999999</v>
       </c>
       <c r="I78" t="n">
-        <v>6556.14</v>
+        <v>6556.139999999999</v>
       </c>
       <c r="J78" t="n">
         <v>116</v>
@@ -7280,7 +7280,7 @@
         <v>0</v>
       </c>
       <c r="L78" t="n">
-        <v>0</v>
+        <v>2162.975724</v>
       </c>
       <c r="M78" t="n">
         <v>0</v>
@@ -7289,28 +7289,28 @@
         <v>205.4150007247658</v>
       </c>
       <c r="O78" t="n">
-        <v>6672.14</v>
+        <v>4509.164276</v>
       </c>
       <c r="P78" t="n">
-        <v>6466.724999275235</v>
+        <v>4303.749275275235</v>
       </c>
       <c r="Q78" t="n">
-        <v>6466.724999275235</v>
+        <v>4303.749275275235</v>
       </c>
       <c r="R78" t="n">
-        <v>444.8093333333334</v>
+        <v>444.8093333333333</v>
       </c>
       <c r="S78" t="n">
         <v>0</v>
       </c>
       <c r="T78" t="n">
-        <v>431.1149999516823</v>
+        <v>286.9166183516824</v>
       </c>
       <c r="U78" t="n">
-        <v>431.1149999516823</v>
+        <v>286.9166183516824</v>
       </c>
       <c r="W78" t="n">
-        <v>0</v>
+        <v>0.08274126153723743</v>
       </c>
       <c r="X78" t="n">
         <v>0</v>
@@ -7354,7 +7354,7 @@
         <v>754563.7899999999</v>
       </c>
       <c r="H79" t="n">
-        <v>143647.4900000001</v>
+        <v>143647.49</v>
       </c>
       <c r="I79" t="n">
         <v>128741.49</v>
@@ -7366,43 +7366,43 @@
         <v>0</v>
       </c>
       <c r="L79" t="n">
-        <v>0</v>
+        <v>50776.921314</v>
       </c>
       <c r="M79" t="n">
         <v>0</v>
       </c>
       <c r="N79" t="n">
-        <v>11817.33203562722</v>
+        <v>11817.33203562719</v>
       </c>
       <c r="O79" t="n">
-        <v>143647.4900000001</v>
+        <v>92870.568686</v>
       </c>
       <c r="P79" t="n">
-        <v>131830.1579643728</v>
+        <v>81053.23665037283</v>
       </c>
       <c r="Q79" t="n">
-        <v>131830.1579643728</v>
+        <v>81053.23665037283</v>
       </c>
       <c r="R79" t="n">
-        <v>227.6505388272584</v>
+        <v>227.6505388272583</v>
       </c>
       <c r="S79" t="n">
         <v>0</v>
       </c>
       <c r="T79" t="n">
-        <v>208.9225958230948</v>
+        <v>128.4520390655671</v>
       </c>
       <c r="U79" t="n">
-        <v>208.9225958230948</v>
+        <v>128.4520390655671</v>
       </c>
       <c r="W79" t="n">
-        <v>0</v>
+        <v>0.06729307977261936</v>
       </c>
       <c r="X79" t="n">
         <v>0</v>
       </c>
       <c r="Y79" t="n">
-        <v>0.7097748753620953</v>
+        <v>0.709774875362095</v>
       </c>
       <c r="Z79" t="n">
         <v>0</v>
@@ -7437,7 +7437,7 @@
         <v>94</v>
       </c>
       <c r="G80" t="n">
-        <v>258844.9299999999</v>
+        <v>258844.9300000001</v>
       </c>
       <c r="H80" t="n">
         <v>20280.93</v>
@@ -7452,43 +7452,43 @@
         <v>0</v>
       </c>
       <c r="L80" t="n">
-        <v>0</v>
+        <v>16186.803318</v>
       </c>
       <c r="M80" t="n">
         <v>0</v>
       </c>
       <c r="N80" t="n">
-        <v>5240.340799692593</v>
+        <v>5240.340799692594</v>
       </c>
       <c r="O80" t="n">
-        <v>20280.93</v>
+        <v>4094.126682000001</v>
       </c>
       <c r="P80" t="n">
-        <v>15040.58920030741</v>
+        <v>-1146.214117692593</v>
       </c>
       <c r="Q80" t="n">
-        <v>15040.58920030741</v>
+        <v>-1146.214117692593</v>
       </c>
       <c r="R80" t="n">
-        <v>108.4541711229947</v>
+        <v>108.4541711229946</v>
       </c>
       <c r="S80" t="n">
         <v>0</v>
       </c>
       <c r="T80" t="n">
-        <v>80.43095829041395</v>
+        <v>-6.129487260388199</v>
       </c>
       <c r="U80" t="n">
-        <v>80.43095829041395</v>
+        <v>-6.129487260388199</v>
       </c>
       <c r="W80" t="n">
-        <v>0</v>
+        <v>0.0625347512813946</v>
       </c>
       <c r="X80" t="n">
         <v>0</v>
       </c>
       <c r="Y80" t="n">
-        <v>0.8788575460991259</v>
+        <v>0.8788575460991257</v>
       </c>
       <c r="Z80" t="n">
         <v>0</v>
@@ -7538,22 +7538,22 @@
         <v>0</v>
       </c>
       <c r="L81" t="n">
-        <v>0</v>
+        <v>83975.30895599999</v>
       </c>
       <c r="M81" t="n">
         <v>0</v>
       </c>
       <c r="N81" t="n">
-        <v>16900.56777856824</v>
+        <v>16900.56777856822</v>
       </c>
       <c r="O81" t="n">
-        <v>180230.05</v>
+        <v>96254.74104400002</v>
       </c>
       <c r="P81" t="n">
-        <v>163329.4822214317</v>
+        <v>79354.17326543179</v>
       </c>
       <c r="Q81" t="n">
-        <v>163329.4822214317</v>
+        <v>79354.17326543179</v>
       </c>
       <c r="R81" t="n">
         <v>196.3290305010893</v>
@@ -7562,13 +7562,13 @@
         <v>0</v>
       </c>
       <c r="T81" t="n">
-        <v>177.918825949272</v>
+        <v>86.4424545375074</v>
       </c>
       <c r="U81" t="n">
-        <v>177.918825949272</v>
+        <v>86.4424545375074</v>
       </c>
       <c r="W81" t="n">
-        <v>0</v>
+        <v>0.07048606622635735</v>
       </c>
       <c r="X81" t="n">
         <v>0</v>
@@ -7624,7 +7624,7 @@
         <v>0</v>
       </c>
       <c r="L82" t="n">
-        <v>0</v>
+        <v>201.348</v>
       </c>
       <c r="M82" t="n">
         <v>0</v>
@@ -7633,13 +7633,13 @@
         <v>12.65924764866248</v>
       </c>
       <c r="O82" t="n">
-        <v>811.8900000000001</v>
+        <v>610.542</v>
       </c>
       <c r="P82" t="n">
-        <v>799.2307523513376</v>
+        <v>597.8827523513376</v>
       </c>
       <c r="Q82" t="n">
-        <v>799.2307523513376</v>
+        <v>597.8827523513376</v>
       </c>
       <c r="R82" t="n">
         <v>405.9450000000001</v>
@@ -7648,19 +7648,19 @@
         <v>0</v>
       </c>
       <c r="T82" t="n">
-        <v>399.6153761756688</v>
+        <v>298.9413761756688</v>
       </c>
       <c r="U82" t="n">
-        <v>399.6153761756688</v>
+        <v>298.9413761756688</v>
       </c>
       <c r="W82" t="n">
-        <v>0</v>
+        <v>0.08765694383979104</v>
       </c>
       <c r="X82" t="n">
         <v>0</v>
       </c>
       <c r="Y82" t="n">
-        <v>0.687144101001306</v>
+        <v>0.6871441010013061</v>
       </c>
       <c r="Z82" t="n">
         <v>0</v>
@@ -7710,7 +7710,7 @@
         <v>0</v>
       </c>
       <c r="L83" t="n">
-        <v>0</v>
+        <v>1702.700244</v>
       </c>
       <c r="M83" t="n">
         <v>0</v>
@@ -7719,13 +7719,13 @@
         <v>288.1284735035683</v>
       </c>
       <c r="O83" t="n">
-        <v>4697.95</v>
+        <v>2995.249756</v>
       </c>
       <c r="P83" t="n">
-        <v>4409.821526496432</v>
+        <v>2707.121282496432</v>
       </c>
       <c r="Q83" t="n">
-        <v>4409.821526496432</v>
+        <v>2707.121282496432</v>
       </c>
       <c r="R83" t="n">
         <v>247.2605263157895</v>
@@ -7734,19 +7734,19 @@
         <v>0</v>
       </c>
       <c r="T83" t="n">
-        <v>232.0958698156017</v>
+        <v>142.4800674998122</v>
       </c>
       <c r="U83" t="n">
-        <v>232.0958698156017</v>
+        <v>142.4800674998122</v>
       </c>
       <c r="W83" t="n">
-        <v>0</v>
+        <v>0.08399615039487116</v>
       </c>
       <c r="X83" t="n">
         <v>0</v>
       </c>
       <c r="Y83" t="n">
-        <v>0.921861934954914</v>
+        <v>0.9218619349549138</v>
       </c>
       <c r="Z83" t="n">
         <v>0</v>
@@ -7796,22 +7796,22 @@
         <v>0</v>
       </c>
       <c r="L84" t="n">
-        <v>0</v>
+        <v>387.972144</v>
       </c>
       <c r="M84" t="n">
         <v>0</v>
       </c>
       <c r="N84" t="n">
-        <v>86.51118819136434</v>
+        <v>86.51118819136435</v>
       </c>
       <c r="O84" t="n">
-        <v>1380.48</v>
+        <v>992.5078559999999</v>
       </c>
       <c r="P84" t="n">
-        <v>1293.968811808636</v>
+        <v>905.9966678086357</v>
       </c>
       <c r="Q84" t="n">
-        <v>1293.968811808636</v>
+        <v>905.9966678086357</v>
       </c>
       <c r="R84" t="n">
         <v>106.1907692307692</v>
@@ -7820,13 +7820,13 @@
         <v>0</v>
       </c>
       <c r="T84" t="n">
-        <v>99.53606244681814</v>
+        <v>69.69205136989505</v>
       </c>
       <c r="U84" t="n">
-        <v>99.53606244681814</v>
+        <v>69.69205136989505</v>
       </c>
       <c r="W84" t="n">
-        <v>0</v>
+        <v>0.04595416145993113</v>
       </c>
       <c r="X84" t="n">
         <v>0</v>
@@ -7882,22 +7882,22 @@
         <v>0</v>
       </c>
       <c r="L85" t="n">
-        <v>0</v>
+        <v>811.464192</v>
       </c>
       <c r="M85" t="n">
         <v>0</v>
       </c>
       <c r="N85" t="n">
-        <v>336.1402580615721</v>
+        <v>336.1402580615722</v>
       </c>
       <c r="O85" t="n">
-        <v>1775.91</v>
+        <v>964.4458079999997</v>
       </c>
       <c r="P85" t="n">
-        <v>1439.769741938428</v>
+        <v>628.3055499384277</v>
       </c>
       <c r="Q85" t="n">
-        <v>1439.769741938428</v>
+        <v>628.3055499384277</v>
       </c>
       <c r="R85" t="n">
         <v>161.4463636363637</v>
@@ -7906,19 +7906,19 @@
         <v>0</v>
       </c>
       <c r="T85" t="n">
-        <v>130.8881583580389</v>
+        <v>57.11868635803888</v>
       </c>
       <c r="U85" t="n">
-        <v>130.8881583580389</v>
+        <v>57.11868635803888</v>
       </c>
       <c r="W85" t="n">
-        <v>0</v>
+        <v>0.05455661579421534</v>
       </c>
       <c r="X85" t="n">
         <v>0</v>
       </c>
       <c r="Y85" t="n">
-        <v>0.7252981753149835</v>
+        <v>0.7252981753149834</v>
       </c>
       <c r="Z85" t="n">
         <v>0</v>
@@ -7953,7 +7953,7 @@
         <v>6</v>
       </c>
       <c r="G86" t="n">
-        <v>54146.08000000001</v>
+        <v>54146.08</v>
       </c>
       <c r="H86" t="n">
         <v>9833.459999999999</v>
@@ -7968,22 +7968,22 @@
         <v>0</v>
       </c>
       <c r="L86" t="n">
-        <v>0</v>
+        <v>3389.157828</v>
       </c>
       <c r="M86" t="n">
         <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>287.5068558591085</v>
+        <v>287.5068558591086</v>
       </c>
       <c r="O86" t="n">
-        <v>9833.459999999999</v>
+        <v>6444.302172000002</v>
       </c>
       <c r="P86" t="n">
-        <v>9545.953144140893</v>
+        <v>6156.795316140892</v>
       </c>
       <c r="Q86" t="n">
-        <v>9545.953144140893</v>
+        <v>6156.795316140892</v>
       </c>
       <c r="R86" t="n">
         <v>351.195</v>
@@ -7992,19 +7992,19 @@
         <v>0</v>
       </c>
       <c r="T86" t="n">
-        <v>340.9268980050319</v>
+        <v>219.8855470050319</v>
       </c>
       <c r="U86" t="n">
-        <v>340.9268980050319</v>
+        <v>219.8855470050319</v>
       </c>
       <c r="W86" t="n">
-        <v>0</v>
+        <v>0.06259285673127214</v>
       </c>
       <c r="X86" t="n">
         <v>0</v>
       </c>
       <c r="Y86" t="n">
-        <v>0.8172938835092032</v>
+        <v>0.8172938835092033</v>
       </c>
       <c r="Z86" t="n">
         <v>0</v>
@@ -8039,13 +8039,13 @@
         <v>304</v>
       </c>
       <c r="G87" t="n">
-        <v>697862.9500000003</v>
+        <v>697862.9500000001</v>
       </c>
       <c r="H87" t="n">
         <v>115971.59</v>
       </c>
       <c r="I87" t="n">
-        <v>101007.5900000001</v>
+        <v>101007.59</v>
       </c>
       <c r="J87" t="n">
         <v>14964</v>
@@ -8054,43 +8054,43 @@
         <v>0</v>
       </c>
       <c r="L87" t="n">
-        <v>0</v>
+        <v>42787.36035</v>
       </c>
       <c r="M87" t="n">
         <v>0</v>
       </c>
       <c r="N87" t="n">
-        <v>8056.794054445512</v>
+        <v>8056.794054445498</v>
       </c>
       <c r="O87" t="n">
-        <v>115971.59</v>
+        <v>73184.22965000001</v>
       </c>
       <c r="P87" t="n">
-        <v>107914.7959455543</v>
+        <v>65127.43559555449</v>
       </c>
       <c r="Q87" t="n">
-        <v>107914.7959455543</v>
+        <v>65127.43559555449</v>
       </c>
       <c r="R87" t="n">
-        <v>174.3933684210527</v>
+        <v>174.3933684210526</v>
       </c>
       <c r="S87" t="n">
         <v>0</v>
       </c>
       <c r="T87" t="n">
-        <v>162.2778886399313</v>
+        <v>97.93599337677367</v>
       </c>
       <c r="U87" t="n">
-        <v>162.2778886399313</v>
+        <v>97.93599337677367</v>
       </c>
       <c r="W87" t="n">
-        <v>0</v>
+        <v>0.06131198160039876</v>
       </c>
       <c r="X87" t="n">
         <v>0</v>
       </c>
       <c r="Y87" t="n">
-        <v>0.7287960623214058</v>
+        <v>0.7287960623214056</v>
       </c>
       <c r="Z87" t="n">
         <v>0</v>
@@ -8125,10 +8125,10 @@
         <v>96</v>
       </c>
       <c r="G88" t="n">
-        <v>267297.5299999999</v>
+        <v>267297.53</v>
       </c>
       <c r="H88" t="n">
-        <v>17513.98999999999</v>
+        <v>17513.99</v>
       </c>
       <c r="I88" t="n">
         <v>16005.99</v>
@@ -8140,43 +8140,43 @@
         <v>0</v>
       </c>
       <c r="L88" t="n">
-        <v>0</v>
+        <v>15063.24141</v>
       </c>
       <c r="M88" t="n">
         <v>0</v>
       </c>
       <c r="N88" t="n">
-        <v>3600.499951113339</v>
+        <v>3600.499951113341</v>
       </c>
       <c r="O88" t="n">
-        <v>17513.98999999999</v>
+        <v>2450.748589999999</v>
       </c>
       <c r="P88" t="n">
-        <v>13913.49004888667</v>
+        <v>-1149.751361113341</v>
       </c>
       <c r="Q88" t="n">
-        <v>13913.49004888667</v>
+        <v>-1149.751361113341</v>
       </c>
       <c r="R88" t="n">
-        <v>67.36149999999998</v>
+        <v>67.36150000000001</v>
       </c>
       <c r="S88" t="n">
         <v>0</v>
       </c>
       <c r="T88" t="n">
-        <v>53.51342326494872</v>
+        <v>-4.422120619666695</v>
       </c>
       <c r="U88" t="n">
-        <v>53.51342326494872</v>
+        <v>-4.422120619666695</v>
       </c>
       <c r="W88" t="n">
-        <v>0</v>
+        <v>0.05635383690227141</v>
       </c>
       <c r="X88" t="n">
         <v>0</v>
       </c>
       <c r="Y88" t="n">
-        <v>0.8423085316201767</v>
+        <v>0.842308531620176</v>
       </c>
       <c r="Z88" t="n">
         <v>0</v>
@@ -8214,10 +8214,10 @@
         <v>1157626.09</v>
       </c>
       <c r="H89" t="n">
-        <v>141524.2499999999</v>
+        <v>141524.25</v>
       </c>
       <c r="I89" t="n">
-        <v>131432.1199999998</v>
+        <v>131432.12</v>
       </c>
       <c r="J89" t="n">
         <v>10092.13</v>
@@ -8226,43 +8226,43 @@
         <v>0</v>
       </c>
       <c r="L89" t="n">
-        <v>0</v>
+        <v>77744.70660599999</v>
       </c>
       <c r="M89" t="n">
         <v>0</v>
       </c>
       <c r="N89" t="n">
-        <v>13349.50622389587</v>
+        <v>13349.50622389591</v>
       </c>
       <c r="O89" t="n">
-        <v>141524.2499999999</v>
+        <v>63779.54339399999</v>
       </c>
       <c r="P89" t="n">
-        <v>128174.7437761039</v>
+        <v>50430.03717010409</v>
       </c>
       <c r="Q89" t="n">
-        <v>128174.7437761039</v>
+        <v>50430.03717010409</v>
       </c>
       <c r="R89" t="n">
-        <v>144.7078220858895</v>
+        <v>144.7078220858896</v>
       </c>
       <c r="S89" t="n">
         <v>0</v>
       </c>
       <c r="T89" t="n">
-        <v>131.0580202209651</v>
+        <v>51.56445518415551</v>
       </c>
       <c r="U89" t="n">
-        <v>131.0580202209651</v>
+        <v>51.56445518415551</v>
       </c>
       <c r="W89" t="n">
-        <v>0</v>
+        <v>0.06715873741753696</v>
       </c>
       <c r="X89" t="n">
         <v>0</v>
       </c>
       <c r="Y89" t="n">
-        <v>0.7496489561668399</v>
+        <v>0.7496489561668397</v>
       </c>
       <c r="Z89" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="L90" t="n">
-        <v>0</v>
+        <v>6.496560000000001</v>
       </c>
       <c r="M90" t="n">
         <v>0</v>
@@ -8321,13 +8321,13 @@
         <v>2.417541414454699</v>
       </c>
       <c r="O90" t="n">
-        <v>0</v>
+        <v>-6.496560000000001</v>
       </c>
       <c r="P90" t="n">
-        <v>-2.417541414454699</v>
+        <v>-8.914101414454699</v>
       </c>
       <c r="Q90" t="n">
-        <v>-2.417541414454699</v>
+        <v>-8.914101414454699</v>
       </c>
       <c r="R90" t="n">
         <v>0</v>
@@ -8336,13 +8336,13 @@
         <v>0</v>
       </c>
       <c r="T90" t="n">
-        <v>-2.417541414454699</v>
+        <v>-8.914101414454699</v>
       </c>
       <c r="U90" t="n">
-        <v>-2.417541414454699</v>
+        <v>-8.914101414454699</v>
       </c>
       <c r="W90" t="n">
-        <v>0</v>
+        <v>0.0252</v>
       </c>
       <c r="X90" t="n">
         <v>0</v>
@@ -8383,7 +8383,7 @@
         <v>8</v>
       </c>
       <c r="G91" t="n">
-        <v>39207.58000000001</v>
+        <v>39207.58</v>
       </c>
       <c r="H91" t="n">
         <v>6338.77</v>
@@ -8398,22 +8398,22 @@
         <v>0</v>
       </c>
       <c r="L91" t="n">
-        <v>0</v>
+        <v>2734.155396</v>
       </c>
       <c r="M91" t="n">
         <v>0</v>
       </c>
       <c r="N91" t="n">
-        <v>217.2640751064362</v>
+        <v>217.2640751064363</v>
       </c>
       <c r="O91" t="n">
-        <v>6338.77</v>
+        <v>3604.614604000001</v>
       </c>
       <c r="P91" t="n">
-        <v>6121.505924893564</v>
+        <v>3387.350528893564</v>
       </c>
       <c r="Q91" t="n">
-        <v>6121.505924893564</v>
+        <v>3387.350528893564</v>
       </c>
       <c r="R91" t="n">
         <v>288.1259090909091</v>
@@ -8422,13 +8422,13 @@
         <v>0</v>
       </c>
       <c r="T91" t="n">
-        <v>278.2502693133438</v>
+        <v>153.9704785860711</v>
       </c>
       <c r="U91" t="n">
-        <v>278.2502693133438</v>
+        <v>153.9704785860711</v>
       </c>
       <c r="W91" t="n">
-        <v>0</v>
+        <v>0.06973537759790326</v>
       </c>
       <c r="X91" t="n">
         <v>0</v>
@@ -8484,7 +8484,7 @@
         <v>0</v>
       </c>
       <c r="L92" t="n">
-        <v>0</v>
+        <v>552.5490599999999</v>
       </c>
       <c r="M92" t="n">
         <v>0</v>
@@ -8493,13 +8493,13 @@
         <v>121.8708801316467</v>
       </c>
       <c r="O92" t="n">
-        <v>1425.53</v>
+        <v>872.9809399999999</v>
       </c>
       <c r="P92" t="n">
-        <v>1303.659119868353</v>
+        <v>751.1100598683532</v>
       </c>
       <c r="Q92" t="n">
-        <v>1303.659119868353</v>
+        <v>751.1100598683532</v>
       </c>
       <c r="R92" t="n">
         <v>178.19125</v>
@@ -8508,19 +8508,19 @@
         <v>0</v>
       </c>
       <c r="T92" t="n">
-        <v>162.9573899835441</v>
+        <v>93.88875748354415</v>
       </c>
       <c r="U92" t="n">
-        <v>162.9573899835441</v>
+        <v>93.88875748354415</v>
       </c>
       <c r="W92" t="n">
-        <v>0</v>
+        <v>0.06068813243226322</v>
       </c>
       <c r="X92" t="n">
         <v>0</v>
       </c>
       <c r="Y92" t="n">
-        <v>0.5393548188688736</v>
+        <v>0.5393548188688737</v>
       </c>
       <c r="Z92" t="n">
         <v>0</v>
@@ -8570,37 +8570,37 @@
         <v>0</v>
       </c>
       <c r="L93" t="n">
-        <v>0</v>
+        <v>394.081632</v>
       </c>
       <c r="M93" t="n">
         <v>0</v>
       </c>
       <c r="N93" t="n">
-        <v>75.91711453070765</v>
+        <v>75.91711453070766</v>
       </c>
       <c r="O93" t="n">
-        <v>452.28</v>
+        <v>58.19836800000004</v>
       </c>
       <c r="P93" t="n">
-        <v>376.3628854692923</v>
+        <v>-17.71874653070765</v>
       </c>
       <c r="Q93" t="n">
-        <v>376.3628854692923</v>
+        <v>-17.71874653070765</v>
       </c>
       <c r="R93" t="n">
-        <v>45.22799999999999</v>
+        <v>45.228</v>
       </c>
       <c r="S93" t="n">
         <v>0</v>
       </c>
       <c r="T93" t="n">
-        <v>37.63628854692923</v>
+        <v>-1.771874653070765</v>
       </c>
       <c r="U93" t="n">
-        <v>37.63628854692923</v>
+        <v>-1.771874653070765</v>
       </c>
       <c r="W93" t="n">
-        <v>0</v>
+        <v>0.04447492449857574</v>
       </c>
       <c r="X93" t="n">
         <v>0</v>
@@ -8656,22 +8656,22 @@
         <v>0</v>
       </c>
       <c r="L94" t="n">
-        <v>0</v>
+        <v>1693.469484</v>
       </c>
       <c r="M94" t="n">
         <v>0</v>
       </c>
       <c r="N94" t="n">
-        <v>98.17963211403317</v>
+        <v>98.17963211403318</v>
       </c>
       <c r="O94" t="n">
-        <v>3243.01</v>
+        <v>1549.540516</v>
       </c>
       <c r="P94" t="n">
-        <v>3144.830367885967</v>
+        <v>1451.360883885967</v>
       </c>
       <c r="Q94" t="n">
-        <v>3144.830367885967</v>
+        <v>1451.360883885967</v>
       </c>
       <c r="R94" t="n">
         <v>216.2006666666667</v>
@@ -8680,13 +8680,13 @@
         <v>0</v>
       </c>
       <c r="T94" t="n">
-        <v>209.6553578590644</v>
+        <v>96.75739225906446</v>
       </c>
       <c r="U94" t="n">
-        <v>209.6553578590644</v>
+        <v>96.75739225906446</v>
       </c>
       <c r="W94" t="n">
-        <v>0</v>
+        <v>0.06028703639821986</v>
       </c>
       <c r="X94" t="n">
         <v>0</v>
@@ -8742,7 +8742,7 @@
         <v>0</v>
       </c>
       <c r="L95" t="n">
-        <v>0</v>
+        <v>79.19805600000001</v>
       </c>
       <c r="M95" t="n">
         <v>0</v>
@@ -8751,13 +8751,13 @@
         <v>7.124124731314998</v>
       </c>
       <c r="O95" t="n">
-        <v>131.68</v>
+        <v>52.481944</v>
       </c>
       <c r="P95" t="n">
-        <v>124.555875268685</v>
+        <v>45.35781926868501</v>
       </c>
       <c r="Q95" t="n">
-        <v>124.555875268685</v>
+        <v>45.35781926868501</v>
       </c>
       <c r="R95" t="n">
         <v>65.84</v>
@@ -8766,13 +8766,13 @@
         <v>0</v>
       </c>
       <c r="T95" t="n">
-        <v>62.27793763434251</v>
+        <v>22.6789096343425</v>
       </c>
       <c r="U95" t="n">
-        <v>62.27793763434251</v>
+        <v>22.6789096343425</v>
       </c>
       <c r="W95" t="n">
-        <v>0</v>
+        <v>0.03497544857555457</v>
       </c>
       <c r="X95" t="n">
         <v>0</v>
@@ -8813,13 +8813,13 @@
         <v>290</v>
       </c>
       <c r="G96" t="n">
-        <v>774303.5099999994</v>
+        <v>774303.51</v>
       </c>
       <c r="H96" t="n">
-        <v>75908.47</v>
+        <v>75908.47000000002</v>
       </c>
       <c r="I96" t="n">
-        <v>67266.46999999997</v>
+        <v>67266.47000000002</v>
       </c>
       <c r="J96" t="n">
         <v>8642</v>
@@ -8828,22 +8828,22 @@
         <v>0</v>
       </c>
       <c r="L96" t="n">
-        <v>0</v>
+        <v>50771.93751</v>
       </c>
       <c r="M96" t="n">
         <v>0</v>
       </c>
       <c r="N96" t="n">
-        <v>10489.25695153223</v>
+        <v>10489.25695153221</v>
       </c>
       <c r="O96" t="n">
-        <v>75908.47</v>
+        <v>25136.53249000001</v>
       </c>
       <c r="P96" t="n">
-        <v>65419.21304846786</v>
+        <v>14647.27553846779</v>
       </c>
       <c r="Q96" t="n">
-        <v>65419.21304846786</v>
+        <v>14647.27553846779</v>
       </c>
       <c r="R96" t="n">
         <v>124.4401147540984</v>
@@ -8852,19 +8852,19 @@
         <v>0</v>
       </c>
       <c r="T96" t="n">
-        <v>107.2446115548653</v>
+        <v>24.01192711224228</v>
       </c>
       <c r="U96" t="n">
-        <v>107.2446115548653</v>
+        <v>24.01192711224228</v>
       </c>
       <c r="W96" t="n">
-        <v>0</v>
+        <v>0.06557110597367692</v>
       </c>
       <c r="X96" t="n">
         <v>0</v>
       </c>
       <c r="Y96" t="n">
-        <v>0.4755388103561612</v>
+        <v>0.4755388103561611</v>
       </c>
       <c r="Z96" t="n">
         <v>0</v>
@@ -8899,13 +8899,13 @@
         <v>114</v>
       </c>
       <c r="G97" t="n">
-        <v>429720.1899999996</v>
+        <v>429720.1899999999</v>
       </c>
       <c r="H97" t="n">
-        <v>18074.99999999999</v>
+        <v>18075</v>
       </c>
       <c r="I97" t="n">
-        <v>16972.99999999999</v>
+        <v>16973</v>
       </c>
       <c r="J97" t="n">
         <v>1102</v>
@@ -8914,43 +8914,43 @@
         <v>0</v>
       </c>
       <c r="L97" t="n">
-        <v>0</v>
+        <v>26005.11354</v>
       </c>
       <c r="M97" t="n">
         <v>0</v>
       </c>
       <c r="N97" t="n">
-        <v>8127.749362565092</v>
+        <v>8127.749362565085</v>
       </c>
       <c r="O97" t="n">
-        <v>18074.99999999999</v>
+        <v>-7930.113539999998</v>
       </c>
       <c r="P97" t="n">
-        <v>9947.250637434914</v>
+        <v>-16057.86290256508</v>
       </c>
       <c r="Q97" t="n">
-        <v>9947.250637434914</v>
+        <v>-16057.86290256508</v>
       </c>
       <c r="R97" t="n">
-        <v>54.11676646706584</v>
+        <v>54.11676646706587</v>
       </c>
       <c r="S97" t="n">
         <v>0</v>
       </c>
       <c r="T97" t="n">
-        <v>29.78218753723028</v>
+        <v>-48.07743384001521</v>
       </c>
       <c r="U97" t="n">
-        <v>29.78218753723028</v>
+        <v>-48.07743384001521</v>
       </c>
       <c r="W97" t="n">
-        <v>0</v>
+        <v>0.06051638751253462</v>
       </c>
       <c r="X97" t="n">
         <v>0</v>
       </c>
       <c r="Y97" t="n">
-        <v>0.6267064854457975</v>
+        <v>0.6267064854457969</v>
       </c>
       <c r="Z97" t="n">
         <v>0</v>
@@ -8985,10 +8985,10 @@
         <v>421</v>
       </c>
       <c r="G98" t="n">
-        <v>1695509.859999999</v>
+        <v>1695509.86</v>
       </c>
       <c r="H98" t="n">
-        <v>122225.6199999999</v>
+        <v>122225.62</v>
       </c>
       <c r="I98" t="n">
         <v>113409.62</v>
@@ -9000,37 +9000,37 @@
         <v>0</v>
       </c>
       <c r="L98" t="n">
-        <v>0</v>
+        <v>111588.778476</v>
       </c>
       <c r="M98" t="n">
         <v>0</v>
       </c>
       <c r="N98" t="n">
-        <v>19955.91364073001</v>
+        <v>19955.91364073011</v>
       </c>
       <c r="O98" t="n">
-        <v>122225.6199999999</v>
+        <v>10636.841524</v>
       </c>
       <c r="P98" t="n">
-        <v>102269.7063592698</v>
+        <v>-9319.072116730091</v>
       </c>
       <c r="Q98" t="n">
-        <v>102269.7063592698</v>
+        <v>-9319.072116730091</v>
       </c>
       <c r="R98" t="n">
-        <v>107.2154561403508</v>
+        <v>107.2154561403509</v>
       </c>
       <c r="S98" t="n">
         <v>0</v>
       </c>
       <c r="T98" t="n">
-        <v>89.71026873620156</v>
+        <v>-8.174624663798324</v>
       </c>
       <c r="U98" t="n">
-        <v>89.71026873620156</v>
+        <v>-8.174624663798324</v>
       </c>
       <c r="W98" t="n">
-        <v>0</v>
+        <v>0.06581429050256304</v>
       </c>
       <c r="X98" t="n">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>0</v>
       </c>
       <c r="L99" t="n">
-        <v>0</v>
+        <v>103.007016</v>
       </c>
       <c r="M99" t="n">
         <v>0</v>
@@ -9095,13 +9095,13 @@
         <v>19.44301583044576</v>
       </c>
       <c r="O99" t="n">
-        <v>318.2</v>
+        <v>215.192984</v>
       </c>
       <c r="P99" t="n">
-        <v>298.7569841695542</v>
+        <v>195.7499681695542</v>
       </c>
       <c r="Q99" t="n">
-        <v>298.7569841695542</v>
+        <v>195.7499681695542</v>
       </c>
       <c r="R99" t="n">
         <v>106.0666666666667</v>
@@ -9110,13 +9110,13 @@
         <v>0</v>
       </c>
       <c r="T99" t="n">
-        <v>99.58566138985141</v>
+        <v>65.24998938985141</v>
       </c>
       <c r="U99" t="n">
-        <v>99.58566138985141</v>
+        <v>65.24998938985141</v>
       </c>
       <c r="W99" t="n">
-        <v>0</v>
+        <v>0.05391400307759947</v>
       </c>
       <c r="X99" t="n">
         <v>0</v>
@@ -9172,7 +9172,7 @@
         <v>0</v>
       </c>
       <c r="L100" t="n">
-        <v>0</v>
+        <v>3147.022998</v>
       </c>
       <c r="M100" t="n">
         <v>0</v>
@@ -9181,13 +9181,13 @@
         <v>1018.08118544897</v>
       </c>
       <c r="O100" t="n">
-        <v>3853.43</v>
+        <v>706.407002</v>
       </c>
       <c r="P100" t="n">
-        <v>2835.348814551031</v>
+        <v>-311.6741834489698</v>
       </c>
       <c r="Q100" t="n">
-        <v>2835.348814551031</v>
+        <v>-311.6741834489698</v>
       </c>
       <c r="R100" t="n">
         <v>116.7706060606061</v>
@@ -9196,19 +9196,19 @@
         <v>0</v>
       </c>
       <c r="T100" t="n">
-        <v>85.91966104700093</v>
+        <v>-9.444672225726356</v>
       </c>
       <c r="U100" t="n">
-        <v>85.91966104700093</v>
+        <v>-9.444672225726356</v>
       </c>
       <c r="W100" t="n">
-        <v>0</v>
+        <v>0.05277168369618423</v>
       </c>
       <c r="X100" t="n">
         <v>0</v>
       </c>
       <c r="Y100" t="n">
-        <v>0.7737665778089901</v>
+        <v>0.7737665778089902</v>
       </c>
       <c r="Z100" t="n">
         <v>0</v>
@@ -9258,22 +9258,22 @@
         <v>0</v>
       </c>
       <c r="L101" t="n">
-        <v>0</v>
+        <v>1298.745882</v>
       </c>
       <c r="M101" t="n">
         <v>0</v>
       </c>
       <c r="N101" t="n">
-        <v>160.1817282475484</v>
+        <v>160.1817282475485</v>
       </c>
       <c r="O101" t="n">
-        <v>43.63</v>
+        <v>-1255.115882</v>
       </c>
       <c r="P101" t="n">
-        <v>-116.5517282475485</v>
+        <v>-1415.297610247549</v>
       </c>
       <c r="Q101" t="n">
-        <v>-116.5517282475485</v>
+        <v>-1415.297610247549</v>
       </c>
       <c r="R101" t="n">
         <v>3.635833333333334</v>
@@ -9282,19 +9282,19 @@
         <v>0</v>
       </c>
       <c r="T101" t="n">
-        <v>-9.712644020629041</v>
+        <v>-117.941467520629</v>
       </c>
       <c r="U101" t="n">
-        <v>-9.712644020629041</v>
+        <v>-117.941467520629</v>
       </c>
       <c r="W101" t="n">
-        <v>0</v>
+        <v>0.1067039353439883</v>
       </c>
       <c r="X101" t="n">
         <v>0</v>
       </c>
       <c r="Y101" t="n">
-        <v>0.05151382451943024</v>
+        <v>0.05151382451943023</v>
       </c>
       <c r="Z101" t="n">
         <v>0</v>
@@ -9344,7 +9344,7 @@
         <v>0</v>
       </c>
       <c r="L102" t="n">
-        <v>0</v>
+        <v>1518.699672</v>
       </c>
       <c r="M102" t="n">
         <v>0</v>
@@ -9353,13 +9353,13 @@
         <v>119.5858982074309</v>
       </c>
       <c r="O102" t="n">
-        <v>142.95</v>
+        <v>-1375.749672</v>
       </c>
       <c r="P102" t="n">
-        <v>23.36410179256909</v>
+        <v>-1495.335570207431</v>
       </c>
       <c r="Q102" t="n">
-        <v>23.36410179256909</v>
+        <v>-1495.335570207431</v>
       </c>
       <c r="R102" t="n">
         <v>8.934374999999999</v>
@@ -9368,13 +9368,13 @@
         <v>0</v>
       </c>
       <c r="T102" t="n">
-        <v>1.460256362035568</v>
+        <v>-93.45847313796445</v>
       </c>
       <c r="U102" t="n">
-        <v>1.460256362035568</v>
+        <v>-93.45847313796445</v>
       </c>
       <c r="W102" t="n">
-        <v>0</v>
+        <v>0.06548670999389418</v>
       </c>
       <c r="X102" t="n">
         <v>0</v>
@@ -9430,22 +9430,22 @@
         <v>0</v>
       </c>
       <c r="L103" t="n">
-        <v>0</v>
+        <v>3044.561688</v>
       </c>
       <c r="M103" t="n">
         <v>0</v>
       </c>
       <c r="N103" t="n">
-        <v>163.0100360146597</v>
+        <v>163.0100360146596</v>
       </c>
       <c r="O103" t="n">
-        <v>493.08</v>
+        <v>-2551.481688</v>
       </c>
       <c r="P103" t="n">
-        <v>330.0699639853404</v>
+        <v>-2714.491724014659</v>
       </c>
       <c r="Q103" t="n">
-        <v>330.0699639853404</v>
+        <v>-2714.491724014659</v>
       </c>
       <c r="R103" t="n">
         <v>21.43826086956522</v>
@@ -9454,13 +9454,13 @@
         <v>0</v>
       </c>
       <c r="T103" t="n">
-        <v>14.35086799936263</v>
+        <v>-118.0213793049852</v>
       </c>
       <c r="U103" t="n">
-        <v>14.35086799936263</v>
+        <v>-118.0213793049852</v>
       </c>
       <c r="W103" t="n">
-        <v>0</v>
+        <v>0.058742231461119</v>
       </c>
       <c r="X103" t="n">
         <v>0</v>
@@ -9516,7 +9516,7 @@
         <v>0</v>
       </c>
       <c r="L104" t="n">
-        <v>0</v>
+        <v>5.076288</v>
       </c>
       <c r="M104" t="n">
         <v>0</v>
@@ -9525,13 +9525,13 @@
         <v>6.758479516041343</v>
       </c>
       <c r="O104" t="n">
-        <v>0</v>
+        <v>-5.076288</v>
       </c>
       <c r="P104" t="n">
-        <v>-6.758479516041343</v>
+        <v>-11.83476751604134</v>
       </c>
       <c r="Q104" t="n">
-        <v>-6.758479516041343</v>
+        <v>-11.83476751604134</v>
       </c>
       <c r="R104" t="n">
         <v>0</v>
@@ -9540,13 +9540,13 @@
         <v>0</v>
       </c>
       <c r="T104" t="n">
-        <v>-6.758479516041343</v>
+        <v>-11.83476751604134</v>
       </c>
       <c r="U104" t="n">
-        <v>-6.758479516041343</v>
+        <v>-11.83476751604134</v>
       </c>
       <c r="W104" t="n">
-        <v>0</v>
+        <v>0.0252</v>
       </c>
       <c r="X104" t="n">
         <v>0</v>
@@ -9602,7 +9602,7 @@
         <v>0</v>
       </c>
       <c r="L105" t="n">
-        <v>0</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="M105" t="n">
         <v>0</v>
@@ -9611,13 +9611,13 @@
         <v>5.07363243132397</v>
       </c>
       <c r="O105" t="n">
-        <v>0</v>
+        <v>-75.59999999999999</v>
       </c>
       <c r="P105" t="n">
-        <v>-5.07363243132397</v>
+        <v>-80.67363243132397</v>
       </c>
       <c r="Q105" t="n">
-        <v>-5.07363243132397</v>
+        <v>-80.67363243132397</v>
       </c>
       <c r="R105" t="n">
         <v>0</v>
@@ -9626,13 +9626,13 @@
         <v>0</v>
       </c>
       <c r="T105" t="n">
-        <v>-5.07363243132397</v>
+        <v>-80.67363243132397</v>
       </c>
       <c r="U105" t="n">
-        <v>-5.07363243132397</v>
+        <v>-80.67363243132397</v>
       </c>
       <c r="W105" t="n">
-        <v>0</v>
+        <v>0.05039999999999999</v>
       </c>
       <c r="X105" t="n">
         <v>0</v>
@@ -9673,7 +9673,7 @@
         <v>246</v>
       </c>
       <c r="G106" t="n">
-        <v>643251.2900000002</v>
+        <v>643251.2899999999</v>
       </c>
       <c r="H106" t="n">
         <v>11734.16</v>
@@ -9688,43 +9688,43 @@
         <v>0</v>
       </c>
       <c r="L106" t="n">
-        <v>0</v>
+        <v>42573.42621</v>
       </c>
       <c r="M106" t="n">
         <v>0</v>
       </c>
       <c r="N106" t="n">
-        <v>6475.469076062039</v>
+        <v>6475.469076062029</v>
       </c>
       <c r="O106" t="n">
-        <v>11734.16</v>
+        <v>-30839.26621</v>
       </c>
       <c r="P106" t="n">
-        <v>5258.690923937958</v>
+        <v>-37314.73528606203</v>
       </c>
       <c r="Q106" t="n">
-        <v>5258.690923937958</v>
+        <v>-37314.73528606203</v>
       </c>
       <c r="R106" t="n">
-        <v>22.87360623781677</v>
+        <v>22.87360623781676</v>
       </c>
       <c r="S106" t="n">
         <v>0</v>
       </c>
       <c r="T106" t="n">
-        <v>10.25085950085372</v>
+        <v>-72.73827541142695</v>
       </c>
       <c r="U106" t="n">
-        <v>10.25085950085372</v>
+        <v>-72.73827541142695</v>
       </c>
       <c r="W106" t="n">
-        <v>0</v>
+        <v>0.06618475061278152</v>
       </c>
       <c r="X106" t="n">
         <v>0</v>
       </c>
       <c r="Y106" t="n">
-        <v>0.1650306056906624</v>
+        <v>0.1650306056906625</v>
       </c>
       <c r="Z106" t="n">
         <v>0</v>
@@ -9759,10 +9759,10 @@
         <v>89</v>
       </c>
       <c r="G107" t="n">
-        <v>292579.3099999999</v>
+        <v>292579.31</v>
       </c>
       <c r="H107" t="n">
-        <v>1614.829999999999</v>
+        <v>1614.83</v>
       </c>
       <c r="I107" t="n">
         <v>1440.83</v>
@@ -9774,7 +9774,7 @@
         <v>0</v>
       </c>
       <c r="L107" t="n">
-        <v>0</v>
+        <v>16289.654094</v>
       </c>
       <c r="M107" t="n">
         <v>0</v>
@@ -9783,34 +9783,34 @@
         <v>3280.018916403134</v>
       </c>
       <c r="O107" t="n">
-        <v>1614.829999999999</v>
+        <v>-14674.824094</v>
       </c>
       <c r="P107" t="n">
-        <v>-1665.18891640313</v>
+        <v>-17954.84301040314</v>
       </c>
       <c r="Q107" t="n">
-        <v>-1665.18891640313</v>
+        <v>-17954.84301040314</v>
       </c>
       <c r="R107" t="n">
-        <v>7.051659388646286</v>
+        <v>7.051659388646289</v>
       </c>
       <c r="S107" t="n">
         <v>0</v>
       </c>
       <c r="T107" t="n">
-        <v>-7.271567320537685</v>
+        <v>-78.40542799302679</v>
       </c>
       <c r="U107" t="n">
-        <v>-7.271567320537685</v>
+        <v>-78.40542799302679</v>
       </c>
       <c r="W107" t="n">
-        <v>0</v>
+        <v>0.05567602881420426</v>
       </c>
       <c r="X107" t="n">
         <v>0</v>
       </c>
       <c r="Y107" t="n">
-        <v>0.2270148562453033</v>
+        <v>0.2270148562453032</v>
       </c>
       <c r="Z107" t="n">
         <v>0</v>
@@ -9860,22 +9860,22 @@
         <v>0</v>
       </c>
       <c r="L108" t="n">
-        <v>0</v>
+        <v>72356.28082200002</v>
       </c>
       <c r="M108" t="n">
         <v>0</v>
       </c>
       <c r="N108" t="n">
-        <v>11937.21207275351</v>
+        <v>11937.21207275341</v>
       </c>
       <c r="O108" t="n">
-        <v>13696.19</v>
+        <v>-58660.09082200001</v>
       </c>
       <c r="P108" t="n">
-        <v>1758.977927246585</v>
+        <v>-70597.3028947534</v>
       </c>
       <c r="Q108" t="n">
-        <v>1758.977927246585</v>
+        <v>-70597.3028947534</v>
       </c>
       <c r="R108" t="n">
         <v>15.59930523917995</v>
@@ -9884,13 +9884,13 @@
         <v>0</v>
       </c>
       <c r="T108" t="n">
-        <v>2.00339171668176</v>
+        <v>-80.40695090518611</v>
       </c>
       <c r="U108" t="n">
-        <v>2.00339171668176</v>
+        <v>-80.40695090518611</v>
       </c>
       <c r="W108" t="n">
-        <v>0</v>
+        <v>0.06388453646962848</v>
       </c>
       <c r="X108" t="n">
         <v>0</v>
@@ -9931,7 +9931,7 @@
         <v>18</v>
       </c>
       <c r="G109" t="n">
-        <v>83733.48000000001</v>
+        <v>83733.48</v>
       </c>
       <c r="H109" t="n">
         <v>351.7</v>
@@ -9946,7 +9946,7 @@
         <v>0</v>
       </c>
       <c r="L109" t="n">
-        <v>0</v>
+        <v>3903.089274</v>
       </c>
       <c r="M109" t="n">
         <v>0</v>
@@ -9955,13 +9955,13 @@
         <v>2594.271750044797</v>
       </c>
       <c r="O109" t="n">
-        <v>351.7</v>
+        <v>-3551.389274</v>
       </c>
       <c r="P109" t="n">
-        <v>-2242.571750044797</v>
+        <v>-6145.661024044799</v>
       </c>
       <c r="Q109" t="n">
-        <v>-2242.571750044797</v>
+        <v>-6145.661024044799</v>
       </c>
       <c r="R109" t="n">
         <v>4.567532467532468</v>
@@ -9970,13 +9970,13 @@
         <v>0</v>
       </c>
       <c r="T109" t="n">
-        <v>-29.12430844214022</v>
+        <v>-79.81377953304934</v>
       </c>
       <c r="U109" t="n">
-        <v>-29.12430844214022</v>
+        <v>-79.81377953304934</v>
       </c>
       <c r="W109" t="n">
-        <v>0</v>
+        <v>0.04661324566947415</v>
       </c>
       <c r="X109" t="n">
         <v>0</v>
